--- a/RAW_PUBLIC/JuneSales2024_public.xlsx
+++ b/RAW_PUBLIC/JuneSales2024_public.xlsx
@@ -523,7 +523,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ORD_0000001</t>
+          <t>ORD_0010173</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -594,7 +594,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ORD_0000002</t>
+          <t>ORD_0010174</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -665,7 +665,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ORD_0000003</t>
+          <t>ORD_0010175</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -736,7 +736,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ORD_0000004</t>
+          <t>ORD_0010176</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -811,7 +811,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ORD_0000005</t>
+          <t>ORD_0010177</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -882,7 +882,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ORD_0000006</t>
+          <t>ORD_0010178</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -953,7 +953,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ORD_0000006</t>
+          <t>ORD_0010178</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1024,7 +1024,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ORD_0000007</t>
+          <t>ORD_0010179</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1095,7 +1095,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ORD_0000008</t>
+          <t>ORD_0010180</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1166,7 +1166,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ORD_0000008</t>
+          <t>ORD_0010180</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1237,7 +1237,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ORD_0000008</t>
+          <t>ORD_0010180</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1308,7 +1308,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ORD_0000009</t>
+          <t>ORD_0010181</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1379,7 +1379,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ORD_0000010</t>
+          <t>ORD_0010182</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1450,7 +1450,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ORD_0000011</t>
+          <t>ORD_0010183</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1525,7 +1525,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ORD_0000012</t>
+          <t>ORD_0010184</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1596,7 +1596,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ORD_0000012</t>
+          <t>ORD_0010184</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1667,7 +1667,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ORD_0000013</t>
+          <t>ORD_0010185</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1742,7 +1742,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ORD_0000014</t>
+          <t>ORD_0010186</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1813,7 +1813,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ORD_0000015</t>
+          <t>ORD_0010187</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1884,7 +1884,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ORD_0000016</t>
+          <t>ORD_0010188</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1955,7 +1955,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ORD_0000017</t>
+          <t>ORD_0010189</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -2026,7 +2026,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ORD_0000018</t>
+          <t>ORD_0010190</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -2101,7 +2101,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ORD_0000019</t>
+          <t>ORD_0010191</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2172,7 +2172,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ORD_0000020</t>
+          <t>ORD_0010192</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2247,7 +2247,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ORD_0000021</t>
+          <t>ORD_0010193</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2318,7 +2318,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ORD_0000022</t>
+          <t>ORD_0010194</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2389,7 +2389,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ORD_0000023</t>
+          <t>ORD_0010195</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2460,7 +2460,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ORD_0000024</t>
+          <t>ORD_0010196</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2531,7 +2531,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ORD_0000025</t>
+          <t>ORD_0010197</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2602,7 +2602,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ORD_0000025</t>
+          <t>ORD_0010197</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2673,7 +2673,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ORD_0000026</t>
+          <t>ORD_0010198</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2744,7 +2744,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ORD_0000027</t>
+          <t>ORD_0010199</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2815,7 +2815,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ORD_0000028</t>
+          <t>ORD_0010200</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2886,7 +2886,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ORD_0000029</t>
+          <t>ORD_0010201</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2957,7 +2957,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ORD_0000030</t>
+          <t>ORD_0010202</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -3028,7 +3028,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ORD_0000031</t>
+          <t>ORD_0010203</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -3099,7 +3099,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>ORD_0000032</t>
+          <t>ORD_0010204</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -3170,7 +3170,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>ORD_0000033</t>
+          <t>ORD_0010205</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -3241,7 +3241,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ORD_0000034</t>
+          <t>ORD_0010206</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -3312,7 +3312,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ORD_0000034</t>
+          <t>ORD_0010206</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -3383,7 +3383,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ORD_0000035</t>
+          <t>ORD_0010207</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -3454,7 +3454,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>ORD_0000036</t>
+          <t>ORD_0010208</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -3525,7 +3525,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>ORD_0000036</t>
+          <t>ORD_0010208</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -3596,7 +3596,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ORD_0000037</t>
+          <t>ORD_0010209</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -3667,7 +3667,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>ORD_0000038</t>
+          <t>ORD_0010210</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -3742,7 +3742,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>ORD_0000039</t>
+          <t>ORD_0010211</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -3813,7 +3813,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>ORD_0000040</t>
+          <t>ORD_0010212</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -3888,7 +3888,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>ORD_0000041</t>
+          <t>ORD_0010213</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -3959,7 +3959,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>ORD_0000041</t>
+          <t>ORD_0010213</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -4030,7 +4030,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>ORD_0000042</t>
+          <t>ORD_0010214</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -4101,7 +4101,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>ORD_0000043</t>
+          <t>ORD_0010215</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -4172,7 +4172,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>ORD_0000044</t>
+          <t>ORD_0010216</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -4243,7 +4243,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>ORD_0000045</t>
+          <t>ORD_0010217</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -4314,7 +4314,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>ORD_0000046</t>
+          <t>ORD_0010218</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -4385,7 +4385,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>ORD_0000047</t>
+          <t>ORD_0010219</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -4460,7 +4460,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>ORD_0000048</t>
+          <t>ORD_0010220</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -4531,7 +4531,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>ORD_0000049</t>
+          <t>ORD_0010221</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -4602,7 +4602,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>ORD_0000050</t>
+          <t>ORD_0010222</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -4673,7 +4673,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>ORD_0000050</t>
+          <t>ORD_0010222</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -4744,7 +4744,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>ORD_0000051</t>
+          <t>ORD_0010223</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -4815,7 +4815,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>ORD_0000052</t>
+          <t>ORD_0010224</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -4886,7 +4886,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>ORD_0000053</t>
+          <t>ORD_0010225</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -4957,7 +4957,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>ORD_0000054</t>
+          <t>ORD_0010226</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -5028,7 +5028,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>ORD_0000055</t>
+          <t>ORD_0010227</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -5099,7 +5099,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>ORD_0000056</t>
+          <t>ORD_0010228</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -5170,7 +5170,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>ORD_0000057</t>
+          <t>ORD_0010229</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -5241,7 +5241,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>ORD_0000058</t>
+          <t>ORD_0010230</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -5312,7 +5312,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>ORD_0000059</t>
+          <t>ORD_0010231</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -5387,7 +5387,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>ORD_0000060</t>
+          <t>ORD_0010232</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -5458,7 +5458,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>ORD_0000061</t>
+          <t>ORD_0010233</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -5529,7 +5529,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>ORD_0000062</t>
+          <t>ORD_0010234</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -5600,7 +5600,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>ORD_0000063</t>
+          <t>ORD_0010235</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -5671,7 +5671,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>ORD_0000064</t>
+          <t>ORD_0010236</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -5742,7 +5742,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>ORD_0000065</t>
+          <t>ORD_0010237</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -5813,7 +5813,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>ORD_0000065</t>
+          <t>ORD_0010237</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -5884,7 +5884,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>ORD_0000065</t>
+          <t>ORD_0010237</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -5955,7 +5955,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>ORD_0000066</t>
+          <t>ORD_0010238</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -6026,7 +6026,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>ORD_0000066</t>
+          <t>ORD_0010238</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -6097,7 +6097,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>ORD_0000066</t>
+          <t>ORD_0010238</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -6168,7 +6168,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>ORD_0000067</t>
+          <t>ORD_0010239</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -6239,7 +6239,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>ORD_0000068</t>
+          <t>ORD_0010240</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -6310,7 +6310,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>ORD_0000069</t>
+          <t>ORD_0010241</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -6381,7 +6381,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>ORD_0000070</t>
+          <t>ORD_0010242</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -6452,7 +6452,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>ORD_0000070</t>
+          <t>ORD_0010242</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -6523,7 +6523,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>ORD_0000071</t>
+          <t>ORD_0010243</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -6594,7 +6594,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>ORD_0000072</t>
+          <t>ORD_0010244</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -6665,7 +6665,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>ORD_0000073</t>
+          <t>ORD_0010245</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -6736,7 +6736,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>ORD_0000074</t>
+          <t>ORD_0010246</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -6807,7 +6807,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>ORD_0000075</t>
+          <t>ORD_0010247</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -6878,7 +6878,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>ORD_0000076</t>
+          <t>ORD_0010248</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -6953,7 +6953,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>ORD_0000077</t>
+          <t>ORD_0010249</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -7024,7 +7024,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>ORD_0000078</t>
+          <t>ORD_0010250</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -7095,7 +7095,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>ORD_0000079</t>
+          <t>ORD_0010251</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -7166,7 +7166,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>ORD_0000080</t>
+          <t>ORD_0010252</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -7237,7 +7237,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>ORD_0000081</t>
+          <t>ORD_0010253</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -7308,7 +7308,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>ORD_0000082</t>
+          <t>ORD_0010254</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -7379,7 +7379,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>ORD_0000083</t>
+          <t>ORD_0010255</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -7450,7 +7450,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>ORD_0000083</t>
+          <t>ORD_0010255</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -7521,7 +7521,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>ORD_0000083</t>
+          <t>ORD_0010255</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -7592,7 +7592,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>ORD_0000083</t>
+          <t>ORD_0010255</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -7663,7 +7663,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>ORD_0000084</t>
+          <t>ORD_0010256</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -7734,7 +7734,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>ORD_0000085</t>
+          <t>ORD_0010257</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -7805,7 +7805,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>ORD_0000086</t>
+          <t>ORD_0010258</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -7876,7 +7876,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>ORD_0000086</t>
+          <t>ORD_0010258</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -7947,7 +7947,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>ORD_0000087</t>
+          <t>ORD_0010259</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -8018,7 +8018,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>ORD_0000088</t>
+          <t>ORD_0010260</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -8089,7 +8089,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>ORD_0000088</t>
+          <t>ORD_0010260</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -8160,7 +8160,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>ORD_0000089</t>
+          <t>ORD_0010261</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -8231,7 +8231,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>ORD_0000090</t>
+          <t>ORD_0010262</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -8302,7 +8302,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>ORD_0000091</t>
+          <t>ORD_0010263</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -8373,7 +8373,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>ORD_0000092</t>
+          <t>ORD_0010264</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -8444,7 +8444,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>ORD_0000093</t>
+          <t>ORD_0010265</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -8515,7 +8515,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>ORD_0000094</t>
+          <t>ORD_0010266</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -8586,7 +8586,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>ORD_0000095</t>
+          <t>ORD_0010267</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -8657,7 +8657,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>ORD_0000096</t>
+          <t>ORD_0010268</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -8728,7 +8728,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>ORD_0000097</t>
+          <t>ORD_0010269</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -8799,7 +8799,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>ORD_0000098</t>
+          <t>ORD_0010270</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -8870,7 +8870,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>ORD_0000099</t>
+          <t>ORD_0010271</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -8945,7 +8945,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>ORD_0000100</t>
+          <t>ORD_0010272</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -9016,7 +9016,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>ORD_0000101</t>
+          <t>ORD_0010273</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -9087,7 +9087,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>ORD_0000102</t>
+          <t>ORD_0010274</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -9158,7 +9158,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>ORD_0000103</t>
+          <t>ORD_0010275</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -9229,7 +9229,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>ORD_0000104</t>
+          <t>ORD_0010276</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -9300,7 +9300,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>ORD_0000105</t>
+          <t>ORD_0010277</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -9371,7 +9371,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>ORD_0000106</t>
+          <t>ORD_0010278</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -9442,7 +9442,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>ORD_0000107</t>
+          <t>ORD_0010279</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -9513,7 +9513,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>ORD_0000108</t>
+          <t>ORD_0010280</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -9584,7 +9584,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>ORD_0000108</t>
+          <t>ORD_0010280</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -9655,7 +9655,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>ORD_0000108</t>
+          <t>ORD_0010280</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -9726,7 +9726,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>ORD_0000109</t>
+          <t>ORD_0010281</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -9797,7 +9797,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>ORD_0000110</t>
+          <t>ORD_0010282</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -9872,7 +9872,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>ORD_0000111</t>
+          <t>ORD_0010283</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -9943,7 +9943,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>ORD_0000112</t>
+          <t>ORD_0010284</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -10014,7 +10014,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>ORD_0000113</t>
+          <t>ORD_0010285</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -10085,7 +10085,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>ORD_0000114</t>
+          <t>ORD_0010286</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -10156,7 +10156,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>ORD_0000115</t>
+          <t>ORD_0010287</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -10227,7 +10227,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>ORD_0000115</t>
+          <t>ORD_0010287</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -10298,7 +10298,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>ORD_0000116</t>
+          <t>ORD_0010288</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -10373,7 +10373,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>ORD_0000117</t>
+          <t>ORD_0010289</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -10444,7 +10444,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>ORD_0000118</t>
+          <t>ORD_0010290</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -10515,7 +10515,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>ORD_0000119</t>
+          <t>ORD_0010291</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -10586,7 +10586,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>ORD_0000120</t>
+          <t>ORD_0010292</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -10657,7 +10657,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>ORD_0000121</t>
+          <t>ORD_0010293</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -10728,7 +10728,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>ORD_0000122</t>
+          <t>ORD_0010294</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -10799,7 +10799,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>ORD_0000123</t>
+          <t>ORD_0010295</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -10870,7 +10870,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>ORD_0000123</t>
+          <t>ORD_0010295</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -10941,7 +10941,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>ORD_0000123</t>
+          <t>ORD_0010295</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -11012,7 +11012,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>ORD_0000124</t>
+          <t>ORD_0010296</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -11083,7 +11083,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>ORD_0000125</t>
+          <t>ORD_0010297</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -11154,7 +11154,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>ORD_0000126</t>
+          <t>ORD_0010298</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -11225,7 +11225,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>ORD_0000127</t>
+          <t>ORD_0010299</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -11296,7 +11296,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>ORD_0000128</t>
+          <t>ORD_0010300</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -11367,7 +11367,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>ORD_0000129</t>
+          <t>ORD_0010301</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -11438,7 +11438,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>ORD_0000130</t>
+          <t>ORD_0010302</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -11509,7 +11509,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>ORD_0000131</t>
+          <t>ORD_0010303</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -11584,7 +11584,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>ORD_0000132</t>
+          <t>ORD_0010304</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -11659,7 +11659,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>ORD_0000133</t>
+          <t>ORD_0010305</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -11730,7 +11730,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>ORD_0000133</t>
+          <t>ORD_0010305</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -11801,7 +11801,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>ORD_0000133</t>
+          <t>ORD_0010305</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -11872,7 +11872,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>ORD_0000134</t>
+          <t>ORD_0010306</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -11943,7 +11943,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>ORD_0000135</t>
+          <t>ORD_0010307</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -12014,7 +12014,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>ORD_0000136</t>
+          <t>ORD_0010308</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -12085,7 +12085,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>ORD_0000137</t>
+          <t>ORD_0010309</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -12156,7 +12156,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>ORD_0000137</t>
+          <t>ORD_0010309</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -12227,7 +12227,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>ORD_0000138</t>
+          <t>ORD_0010310</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -12298,7 +12298,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>ORD_0000139</t>
+          <t>ORD_0010311</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -12373,7 +12373,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>ORD_0000140</t>
+          <t>ORD_0010312</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -12444,7 +12444,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>ORD_0000141</t>
+          <t>ORD_0010313</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -12515,7 +12515,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>ORD_0000142</t>
+          <t>ORD_0010314</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -12586,7 +12586,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>ORD_0000143</t>
+          <t>ORD_0010315</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -12657,7 +12657,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>ORD_0000144</t>
+          <t>ORD_0010316</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -12728,7 +12728,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>ORD_0000145</t>
+          <t>ORD_0010317</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -12803,7 +12803,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>ORD_0000146</t>
+          <t>ORD_0010318</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -12874,7 +12874,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>ORD_0000147</t>
+          <t>ORD_0010319</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -12945,7 +12945,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>ORD_0000148</t>
+          <t>ORD_0010320</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -13016,7 +13016,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>ORD_0000149</t>
+          <t>ORD_0010321</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -13087,7 +13087,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>ORD_0000150</t>
+          <t>ORD_0010322</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -13158,7 +13158,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>ORD_0000151</t>
+          <t>ORD_0010323</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -13233,7 +13233,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>ORD_0000152</t>
+          <t>ORD_0010324</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -13304,7 +13304,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>ORD_0000153</t>
+          <t>ORD_0010325</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -13379,7 +13379,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>ORD_0000153</t>
+          <t>ORD_0010325</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -13454,7 +13454,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>ORD_0000154</t>
+          <t>ORD_0010326</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -13529,7 +13529,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>ORD_0000155</t>
+          <t>ORD_0010327</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -13600,7 +13600,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>ORD_0000155</t>
+          <t>ORD_0010327</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -13671,7 +13671,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>ORD_0000156</t>
+          <t>ORD_0010328</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -13742,7 +13742,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>ORD_0000157</t>
+          <t>ORD_0010329</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -13813,7 +13813,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>ORD_0000158</t>
+          <t>ORD_0010330</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -13884,7 +13884,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>ORD_0000159</t>
+          <t>ORD_0010331</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -13955,7 +13955,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>ORD_0000159</t>
+          <t>ORD_0010331</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -14026,7 +14026,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>ORD_0000160</t>
+          <t>ORD_0010332</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -14097,7 +14097,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>ORD_0000161</t>
+          <t>ORD_0010333</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -14168,7 +14168,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>ORD_0000162</t>
+          <t>ORD_0010334</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -14243,7 +14243,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>ORD_0000163</t>
+          <t>ORD_0010335</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -14318,7 +14318,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>ORD_0000164</t>
+          <t>ORD_0010336</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -14389,7 +14389,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>ORD_0000164</t>
+          <t>ORD_0010336</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -14460,7 +14460,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>ORD_0000164</t>
+          <t>ORD_0010336</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -14531,7 +14531,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>ORD_0000164</t>
+          <t>ORD_0010336</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -14602,7 +14602,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>ORD_0000165</t>
+          <t>ORD_0010337</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -14673,7 +14673,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>ORD_0000166</t>
+          <t>ORD_0010338</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -14744,7 +14744,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>ORD_0000166</t>
+          <t>ORD_0010338</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -14815,7 +14815,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>ORD_0000167</t>
+          <t>ORD_0010339</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -14886,7 +14886,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>ORD_0000168</t>
+          <t>ORD_0010340</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -14957,7 +14957,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>ORD_0000169</t>
+          <t>ORD_0010341</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -15028,7 +15028,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>ORD_0000170</t>
+          <t>ORD_0010342</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -15099,7 +15099,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>ORD_0000171</t>
+          <t>ORD_0010343</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -15170,7 +15170,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>ORD_0000172</t>
+          <t>ORD_0010344</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -15241,7 +15241,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>ORD_0000173</t>
+          <t>ORD_0010345</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -15312,7 +15312,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>ORD_0000173</t>
+          <t>ORD_0010345</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -15383,7 +15383,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>ORD_0000173</t>
+          <t>ORD_0010345</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -15454,7 +15454,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>ORD_0000174</t>
+          <t>ORD_0010346</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -15525,7 +15525,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>ORD_0000175</t>
+          <t>ORD_0010347</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -15596,7 +15596,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>ORD_0000176</t>
+          <t>ORD_0010348</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -15667,7 +15667,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>ORD_0000177</t>
+          <t>ORD_0010349</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -15738,7 +15738,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>ORD_0000177</t>
+          <t>ORD_0010349</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -15809,7 +15809,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>ORD_0000178</t>
+          <t>ORD_0010350</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -15880,7 +15880,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>ORD_0000179</t>
+          <t>ORD_0010351</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -15951,7 +15951,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>ORD_0000180</t>
+          <t>ORD_0010352</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -16022,7 +16022,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>ORD_0000180</t>
+          <t>ORD_0010352</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -16093,7 +16093,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>ORD_0000181</t>
+          <t>ORD_0010353</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -16164,7 +16164,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>ORD_0000181</t>
+          <t>ORD_0010353</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -16235,7 +16235,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>ORD_0000182</t>
+          <t>ORD_0010354</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -16306,7 +16306,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>ORD_0000183</t>
+          <t>ORD_0010355</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -16377,7 +16377,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>ORD_0000183</t>
+          <t>ORD_0010355</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -16448,7 +16448,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>ORD_0000184</t>
+          <t>ORD_0010356</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -16519,7 +16519,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>ORD_0000184</t>
+          <t>ORD_0010356</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -16590,7 +16590,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>ORD_0000185</t>
+          <t>ORD_0010357</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -16661,7 +16661,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>ORD_0000186</t>
+          <t>ORD_0010358</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
@@ -16732,7 +16732,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>ORD_0000186</t>
+          <t>ORD_0010358</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -16803,7 +16803,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>ORD_0000187</t>
+          <t>ORD_0010359</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
@@ -16874,7 +16874,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>ORD_0000188</t>
+          <t>ORD_0010360</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -16945,7 +16945,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>ORD_0000189</t>
+          <t>ORD_0010361</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -17016,7 +17016,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>ORD_0000190</t>
+          <t>ORD_0010362</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -17087,7 +17087,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>ORD_0000191</t>
+          <t>ORD_0010363</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
@@ -17158,7 +17158,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>ORD_0000192</t>
+          <t>ORD_0010364</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -17229,7 +17229,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>ORD_0000193</t>
+          <t>ORD_0010365</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
@@ -17300,7 +17300,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>ORD_0000194</t>
+          <t>ORD_0010366</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
@@ -17371,7 +17371,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>ORD_0000195</t>
+          <t>ORD_0010367</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
@@ -17442,7 +17442,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>ORD_0000196</t>
+          <t>ORD_0010368</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
@@ -17517,7 +17517,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>ORD_0000197</t>
+          <t>ORD_0010369</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
@@ -17588,7 +17588,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>ORD_0000198</t>
+          <t>ORD_0010370</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
@@ -17659,7 +17659,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>ORD_0000199</t>
+          <t>ORD_0010371</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
@@ -17730,7 +17730,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>ORD_0000199</t>
+          <t>ORD_0010371</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
@@ -17801,7 +17801,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>ORD_0000199</t>
+          <t>ORD_0010371</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
@@ -17872,7 +17872,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>ORD_0000200</t>
+          <t>ORD_0010372</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
@@ -17943,7 +17943,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>ORD_0000201</t>
+          <t>ORD_0010373</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
@@ -18014,7 +18014,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>ORD_0000202</t>
+          <t>ORD_0010374</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
@@ -18085,7 +18085,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>ORD_0000203</t>
+          <t>ORD_0010375</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
@@ -18160,7 +18160,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>ORD_0000204</t>
+          <t>ORD_0010376</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
@@ -18231,7 +18231,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>ORD_0000205</t>
+          <t>ORD_0010377</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
@@ -18302,7 +18302,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>ORD_0000206</t>
+          <t>ORD_0010378</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
@@ -18373,7 +18373,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>ORD_0000207</t>
+          <t>ORD_0010379</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
@@ -18444,7 +18444,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>ORD_0000208</t>
+          <t>ORD_0010380</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
@@ -18515,7 +18515,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>ORD_0000209</t>
+          <t>ORD_0010381</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
@@ -18586,7 +18586,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>ORD_0000210</t>
+          <t>ORD_0010382</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
@@ -18657,7 +18657,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>ORD_0000211</t>
+          <t>ORD_0010383</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
@@ -18728,7 +18728,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>ORD_0000212</t>
+          <t>ORD_0010384</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
@@ -18799,7 +18799,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>ORD_0000213</t>
+          <t>ORD_0010385</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
@@ -18870,7 +18870,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>ORD_0000214</t>
+          <t>ORD_0010386</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
@@ -18941,7 +18941,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>ORD_0000215</t>
+          <t>ORD_0010387</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
@@ -19012,7 +19012,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>ORD_0000216</t>
+          <t>ORD_0010388</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
@@ -19083,7 +19083,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>ORD_0000217</t>
+          <t>ORD_0010389</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
@@ -19158,7 +19158,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>ORD_0000218</t>
+          <t>ORD_0010390</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
@@ -19229,7 +19229,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>ORD_0000219</t>
+          <t>ORD_0010391</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
@@ -19300,7 +19300,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>ORD_0000220</t>
+          <t>ORD_0010392</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
@@ -19375,7 +19375,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>ORD_0000221</t>
+          <t>ORD_0010393</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
@@ -19446,7 +19446,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>ORD_0000222</t>
+          <t>ORD_0010394</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
@@ -19517,7 +19517,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>ORD_0000223</t>
+          <t>ORD_0010395</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
@@ -19588,7 +19588,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>ORD_0000224</t>
+          <t>ORD_0010396</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
@@ -19659,7 +19659,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>ORD_0000225</t>
+          <t>ORD_0010397</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
@@ -19730,7 +19730,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>ORD_0000225</t>
+          <t>ORD_0010397</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
@@ -19801,7 +19801,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>ORD_0000225</t>
+          <t>ORD_0010397</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
@@ -19872,7 +19872,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>ORD_0000226</t>
+          <t>ORD_0010398</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
@@ -19947,7 +19947,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>ORD_0000226</t>
+          <t>ORD_0010398</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
@@ -20022,7 +20022,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>ORD_0000227</t>
+          <t>ORD_0010399</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
@@ -20093,7 +20093,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>ORD_0000227</t>
+          <t>ORD_0010399</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
@@ -20164,7 +20164,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>ORD_0000228</t>
+          <t>ORD_0010400</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
@@ -20235,7 +20235,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>ORD_0000229</t>
+          <t>ORD_0010401</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
@@ -20306,7 +20306,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>ORD_0000230</t>
+          <t>ORD_0010402</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
@@ -20377,7 +20377,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>ORD_0000231</t>
+          <t>ORD_0010403</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
@@ -20448,7 +20448,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>ORD_0000232</t>
+          <t>ORD_0010404</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
@@ -20519,7 +20519,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>ORD_0000233</t>
+          <t>ORD_0010405</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
@@ -20590,7 +20590,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>ORD_0000234</t>
+          <t>ORD_0010406</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
@@ -20661,7 +20661,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>ORD_0000235</t>
+          <t>ORD_0010407</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
@@ -20732,7 +20732,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>ORD_0000236</t>
+          <t>ORD_0010408</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
@@ -20803,7 +20803,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>ORD_0000236</t>
+          <t>ORD_0010408</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
@@ -20874,7 +20874,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>ORD_0000236</t>
+          <t>ORD_0010408</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
@@ -20945,7 +20945,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>ORD_0000237</t>
+          <t>ORD_0010409</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
@@ -21016,7 +21016,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>ORD_0000238</t>
+          <t>ORD_0010410</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
@@ -21087,7 +21087,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>ORD_0000239</t>
+          <t>ORD_0010411</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
@@ -21158,7 +21158,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>ORD_0000240</t>
+          <t>ORD_0010412</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
@@ -21229,7 +21229,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>ORD_0000240</t>
+          <t>ORD_0010412</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
@@ -21300,7 +21300,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>ORD_0000241</t>
+          <t>ORD_0010413</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
@@ -21371,7 +21371,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>ORD_0000242</t>
+          <t>ORD_0010414</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
@@ -21442,7 +21442,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>ORD_0000243</t>
+          <t>ORD_0010415</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
@@ -21513,7 +21513,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>ORD_0000244</t>
+          <t>ORD_0010416</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
@@ -21584,7 +21584,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>ORD_0000245</t>
+          <t>ORD_0010417</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
@@ -21655,7 +21655,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>ORD_0000246</t>
+          <t>ORD_0010418</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
@@ -21726,7 +21726,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>ORD_0000247</t>
+          <t>ORD_0010419</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
@@ -21797,7 +21797,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>ORD_0000248</t>
+          <t>ORD_0010420</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
@@ -21868,7 +21868,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>ORD_0000249</t>
+          <t>ORD_0010421</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
@@ -21939,7 +21939,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>ORD_0000250</t>
+          <t>ORD_0010422</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
@@ -22010,7 +22010,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>ORD_0000250</t>
+          <t>ORD_0010422</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
@@ -22081,7 +22081,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>ORD_0000250</t>
+          <t>ORD_0010422</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
@@ -22152,7 +22152,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>ORD_0000251</t>
+          <t>ORD_0010423</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
@@ -22223,7 +22223,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>ORD_0000252</t>
+          <t>ORD_0010424</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
@@ -22294,7 +22294,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>ORD_0000252</t>
+          <t>ORD_0010424</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
@@ -22365,7 +22365,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>ORD_0000252</t>
+          <t>ORD_0010424</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
@@ -22436,7 +22436,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>ORD_0000252</t>
+          <t>ORD_0010424</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
@@ -22507,7 +22507,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>ORD_0000253</t>
+          <t>ORD_0010425</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
@@ -22578,7 +22578,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>ORD_0000254</t>
+          <t>ORD_0010426</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
@@ -22649,7 +22649,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>ORD_0000255</t>
+          <t>ORD_0010427</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
@@ -22720,7 +22720,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>ORD_0000256</t>
+          <t>ORD_0010428</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
@@ -22791,7 +22791,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>ORD_0000256</t>
+          <t>ORD_0010428</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
@@ -22862,7 +22862,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>ORD_0000257</t>
+          <t>ORD_0010429</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
@@ -22933,7 +22933,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>ORD_0000258</t>
+          <t>ORD_0010430</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
@@ -23008,7 +23008,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>ORD_0000259</t>
+          <t>ORD_0010431</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
@@ -23079,7 +23079,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>ORD_0000260</t>
+          <t>ORD_0010432</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
@@ -23150,7 +23150,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>ORD_0000261</t>
+          <t>ORD_0010433</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
@@ -23221,7 +23221,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>ORD_0000261</t>
+          <t>ORD_0010433</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
@@ -23292,7 +23292,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>ORD_0000262</t>
+          <t>ORD_0010434</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
@@ -23363,7 +23363,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>ORD_0000263</t>
+          <t>ORD_0010435</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
@@ -23434,7 +23434,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>ORD_0000264</t>
+          <t>ORD_0010436</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
@@ -23509,7 +23509,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>ORD_0000264</t>
+          <t>ORD_0010436</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
@@ -23584,7 +23584,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>ORD_0000264</t>
+          <t>ORD_0010436</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
@@ -23659,7 +23659,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>ORD_0000265</t>
+          <t>ORD_0010437</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
@@ -23730,7 +23730,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>ORD_0000266</t>
+          <t>ORD_0010438</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
@@ -23801,7 +23801,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>ORD_0000267</t>
+          <t>ORD_0010439</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
@@ -23872,7 +23872,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>ORD_0000268</t>
+          <t>ORD_0010440</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
@@ -23943,7 +23943,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>ORD_0000269</t>
+          <t>ORD_0010441</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
@@ -24014,7 +24014,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>ORD_0000270</t>
+          <t>ORD_0010442</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
@@ -24085,7 +24085,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>ORD_0000270</t>
+          <t>ORD_0010442</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
@@ -24156,7 +24156,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>ORD_0000270</t>
+          <t>ORD_0010442</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
@@ -24227,7 +24227,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>ORD_0000271</t>
+          <t>ORD_0010443</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
@@ -24298,7 +24298,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>ORD_0000272</t>
+          <t>ORD_0010444</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
@@ -24369,7 +24369,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>ORD_0000272</t>
+          <t>ORD_0010444</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
@@ -24440,7 +24440,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>ORD_0000273</t>
+          <t>ORD_0010445</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
@@ -24511,7 +24511,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>ORD_0000274</t>
+          <t>ORD_0010446</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
@@ -24582,7 +24582,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>ORD_0000274</t>
+          <t>ORD_0010446</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
@@ -24653,7 +24653,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>ORD_0000275</t>
+          <t>ORD_0010447</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
@@ -24724,7 +24724,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>ORD_0000276</t>
+          <t>ORD_0010448</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
@@ -24795,7 +24795,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>ORD_0000277</t>
+          <t>ORD_0010449</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
@@ -24866,7 +24866,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>ORD_0000278</t>
+          <t>ORD_0010450</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
@@ -24941,7 +24941,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>ORD_0000279</t>
+          <t>ORD_0010451</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
@@ -25012,7 +25012,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>ORD_0000280</t>
+          <t>ORD_0010452</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
@@ -25083,7 +25083,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>ORD_0000281</t>
+          <t>ORD_0010453</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
@@ -25154,7 +25154,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>ORD_0000282</t>
+          <t>ORD_0010454</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
@@ -25229,7 +25229,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>ORD_0000283</t>
+          <t>ORD_0010455</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
@@ -25300,7 +25300,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>ORD_0000284</t>
+          <t>ORD_0010456</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
@@ -25371,7 +25371,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>ORD_0000285</t>
+          <t>ORD_0010457</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
@@ -25442,7 +25442,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>ORD_0000286</t>
+          <t>ORD_0010458</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
@@ -25513,7 +25513,7 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>ORD_0000287</t>
+          <t>ORD_0010459</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
@@ -25584,7 +25584,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>ORD_0000288</t>
+          <t>ORD_0010460</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
@@ -25655,7 +25655,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>ORD_0000289</t>
+          <t>ORD_0010461</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
@@ -25726,7 +25726,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>ORD_0000290</t>
+          <t>ORD_0010462</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
@@ -25797,7 +25797,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>ORD_0000291</t>
+          <t>ORD_0010463</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
@@ -25868,7 +25868,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>ORD_0000292</t>
+          <t>ORD_0010464</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
@@ -25939,7 +25939,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>ORD_0000293</t>
+          <t>ORD_0010465</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
@@ -26010,7 +26010,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>ORD_0000294</t>
+          <t>ORD_0010466</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
@@ -26081,7 +26081,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>ORD_0000295</t>
+          <t>ORD_0010467</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
@@ -26152,7 +26152,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>ORD_0000296</t>
+          <t>ORD_0010468</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
@@ -26223,7 +26223,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>ORD_0000297</t>
+          <t>ORD_0010469</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
@@ -26294,7 +26294,7 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>ORD_0000298</t>
+          <t>ORD_0010470</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
@@ -26365,7 +26365,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>ORD_0000299</t>
+          <t>ORD_0010471</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
@@ -26436,7 +26436,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>ORD_0000300</t>
+          <t>ORD_0010472</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
@@ -26507,7 +26507,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>ORD_0000301</t>
+          <t>ORD_0010473</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
@@ -26578,7 +26578,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>ORD_0000301</t>
+          <t>ORD_0010473</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
@@ -26649,7 +26649,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>ORD_0000302</t>
+          <t>ORD_0010474</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
@@ -26720,7 +26720,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>ORD_0000303</t>
+          <t>ORD_0010475</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
@@ -26795,7 +26795,7 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>ORD_0000304</t>
+          <t>ORD_0010476</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
@@ -26866,7 +26866,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>ORD_0000305</t>
+          <t>ORD_0010477</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
@@ -26937,7 +26937,7 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>ORD_0000306</t>
+          <t>ORD_0010478</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
@@ -27012,7 +27012,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>ORD_0000306</t>
+          <t>ORD_0010478</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
@@ -27087,7 +27087,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>ORD_0000306</t>
+          <t>ORD_0010478</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
@@ -27162,7 +27162,7 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>ORD_0000306</t>
+          <t>ORD_0010478</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
@@ -27237,7 +27237,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>ORD_0000307</t>
+          <t>ORD_0010479</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
@@ -27308,7 +27308,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>ORD_0000308</t>
+          <t>ORD_0010480</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
@@ -27379,7 +27379,7 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>ORD_0000308</t>
+          <t>ORD_0010480</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
@@ -27450,7 +27450,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>ORD_0000308</t>
+          <t>ORD_0010480</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
@@ -27521,7 +27521,7 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>ORD_0000308</t>
+          <t>ORD_0010480</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
@@ -27592,7 +27592,7 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>ORD_0000309</t>
+          <t>ORD_0010481</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
@@ -27663,7 +27663,7 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>ORD_0000310</t>
+          <t>ORD_0010482</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
@@ -27734,7 +27734,7 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>ORD_0000311</t>
+          <t>ORD_0010483</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
@@ -27805,7 +27805,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>ORD_0000311</t>
+          <t>ORD_0010483</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
@@ -27876,7 +27876,7 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>ORD_0000311</t>
+          <t>ORD_0010483</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
@@ -27947,7 +27947,7 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>ORD_0000312</t>
+          <t>ORD_0010484</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
@@ -28018,7 +28018,7 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>ORD_0000313</t>
+          <t>ORD_0010485</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
@@ -28093,7 +28093,7 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>ORD_0000314</t>
+          <t>ORD_0010486</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
@@ -28164,7 +28164,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>ORD_0000315</t>
+          <t>ORD_0010487</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
@@ -28235,7 +28235,7 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>ORD_0000316</t>
+          <t>ORD_0010488</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
@@ -28306,7 +28306,7 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>ORD_0000317</t>
+          <t>ORD_0010489</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
@@ -28377,7 +28377,7 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>ORD_0000318</t>
+          <t>ORD_0010490</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
@@ -28448,7 +28448,7 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>ORD_0000319</t>
+          <t>ORD_0010491</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
@@ -28523,7 +28523,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>ORD_0000320</t>
+          <t>ORD_0010492</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
@@ -28594,7 +28594,7 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>ORD_0000321</t>
+          <t>ORD_0010493</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
@@ -28665,7 +28665,7 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>ORD_0000322</t>
+          <t>ORD_0010494</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
@@ -28736,7 +28736,7 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>ORD_0000323</t>
+          <t>ORD_0010495</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
@@ -28807,7 +28807,7 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>ORD_0000324</t>
+          <t>ORD_0010496</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
@@ -28878,7 +28878,7 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>ORD_0000325</t>
+          <t>ORD_0010497</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
@@ -28949,7 +28949,7 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>ORD_0000326</t>
+          <t>ORD_0010498</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
@@ -29020,7 +29020,7 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>ORD_0000327</t>
+          <t>ORD_0010499</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
@@ -29091,7 +29091,7 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>ORD_0000327</t>
+          <t>ORD_0010499</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
@@ -29162,7 +29162,7 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>ORD_0000328</t>
+          <t>ORD_0010500</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
@@ -29237,7 +29237,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>ORD_0000329</t>
+          <t>ORD_0010501</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
@@ -29308,7 +29308,7 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>ORD_0000330</t>
+          <t>ORD_0010502</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
@@ -29379,7 +29379,7 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>ORD_0000331</t>
+          <t>ORD_0010503</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
@@ -29450,7 +29450,7 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>ORD_0000332</t>
+          <t>ORD_0010504</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
@@ -29521,7 +29521,7 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>ORD_0000333</t>
+          <t>ORD_0010505</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
@@ -29592,7 +29592,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>ORD_0000334</t>
+          <t>ORD_0010506</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
@@ -29667,7 +29667,7 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>ORD_0000335</t>
+          <t>ORD_0010507</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
@@ -29742,7 +29742,7 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>ORD_0000336</t>
+          <t>ORD_0010508</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
@@ -29813,7 +29813,7 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>ORD_0000336</t>
+          <t>ORD_0010508</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
@@ -29884,7 +29884,7 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>ORD_0000337</t>
+          <t>ORD_0010509</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
@@ -29955,7 +29955,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>ORD_0000338</t>
+          <t>ORD_0010510</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
@@ -30026,7 +30026,7 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>ORD_0000339</t>
+          <t>ORD_0010511</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
@@ -30097,7 +30097,7 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>ORD_0000340</t>
+          <t>ORD_0010512</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
@@ -30168,7 +30168,7 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>ORD_0000341</t>
+          <t>ORD_0010513</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
@@ -30243,7 +30243,7 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>ORD_0000342</t>
+          <t>ORD_0010514</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
@@ -30318,7 +30318,7 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>ORD_0000343</t>
+          <t>ORD_0010515</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
@@ -30393,7 +30393,7 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>ORD_0000344</t>
+          <t>ORD_0010516</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
@@ -30464,7 +30464,7 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>ORD_0000345</t>
+          <t>ORD_0010517</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
@@ -30535,7 +30535,7 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>ORD_0000346</t>
+          <t>ORD_0010518</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
@@ -30606,7 +30606,7 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>ORD_0000347</t>
+          <t>ORD_0010519</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
@@ -30677,7 +30677,7 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>ORD_0000348</t>
+          <t>ORD_0010520</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
@@ -30748,7 +30748,7 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>ORD_0000349</t>
+          <t>ORD_0010521</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
@@ -30819,7 +30819,7 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>ORD_0000350</t>
+          <t>ORD_0010522</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
@@ -30890,7 +30890,7 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>ORD_0000351</t>
+          <t>ORD_0010523</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
@@ -30965,7 +30965,7 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>ORD_0000352</t>
+          <t>ORD_0010524</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
@@ -31036,7 +31036,7 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>ORD_0000353</t>
+          <t>ORD_0010525</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
@@ -31107,7 +31107,7 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>ORD_0000354</t>
+          <t>ORD_0010526</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
@@ -31178,7 +31178,7 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>ORD_0000355</t>
+          <t>ORD_0010527</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
@@ -31249,7 +31249,7 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>ORD_0000356</t>
+          <t>ORD_0010528</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
@@ -31320,7 +31320,7 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>ORD_0000357</t>
+          <t>ORD_0010529</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
@@ -31391,7 +31391,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>ORD_0000358</t>
+          <t>ORD_0010530</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
@@ -31462,7 +31462,7 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>ORD_0000359</t>
+          <t>ORD_0010531</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
@@ -31533,7 +31533,7 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>ORD_0000360</t>
+          <t>ORD_0010532</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
@@ -31604,7 +31604,7 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>ORD_0000361</t>
+          <t>ORD_0010533</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
@@ -31675,7 +31675,7 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>ORD_0000362</t>
+          <t>ORD_0010534</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
@@ -31746,7 +31746,7 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>ORD_0000363</t>
+          <t>ORD_0010535</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
@@ -31821,7 +31821,7 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>ORD_0000364</t>
+          <t>ORD_0010536</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
@@ -31892,7 +31892,7 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>ORD_0000365</t>
+          <t>ORD_0010537</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
@@ -31963,7 +31963,7 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>ORD_0000366</t>
+          <t>ORD_0010538</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
@@ -32034,7 +32034,7 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>ORD_0000367</t>
+          <t>ORD_0010539</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
@@ -32105,7 +32105,7 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>ORD_0000368</t>
+          <t>ORD_0010540</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
@@ -32176,7 +32176,7 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>ORD_0000368</t>
+          <t>ORD_0010540</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
@@ -32247,7 +32247,7 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>ORD_0000368</t>
+          <t>ORD_0010540</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
@@ -32318,7 +32318,7 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>ORD_0000369</t>
+          <t>ORD_0010541</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
@@ -32393,7 +32393,7 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>ORD_0000370</t>
+          <t>ORD_0010542</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
@@ -32464,7 +32464,7 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>ORD_0000371</t>
+          <t>ORD_0010543</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
@@ -32535,7 +32535,7 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>ORD_0000372</t>
+          <t>ORD_0010544</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
@@ -32606,7 +32606,7 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>ORD_0000373</t>
+          <t>ORD_0010545</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
@@ -32677,7 +32677,7 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>ORD_0000374</t>
+          <t>ORD_0010546</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
@@ -32748,7 +32748,7 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>ORD_0000375</t>
+          <t>ORD_0010547</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
@@ -32823,7 +32823,7 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>ORD_0000376</t>
+          <t>ORD_0010548</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
@@ -32894,7 +32894,7 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>ORD_0000377</t>
+          <t>ORD_0010549</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
@@ -32965,7 +32965,7 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>ORD_0000378</t>
+          <t>ORD_0010550</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
@@ -33036,7 +33036,7 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>ORD_0000379</t>
+          <t>ORD_0010551</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
@@ -33107,7 +33107,7 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>ORD_0000380</t>
+          <t>ORD_0010552</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
@@ -33178,7 +33178,7 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>ORD_0000381</t>
+          <t>ORD_0010553</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
@@ -33253,7 +33253,7 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>ORD_0000382</t>
+          <t>ORD_0010554</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
@@ -33328,7 +33328,7 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>ORD_0000383</t>
+          <t>ORD_0010555</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
@@ -33403,7 +33403,7 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>ORD_0000384</t>
+          <t>ORD_0010556</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
@@ -33474,7 +33474,7 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>ORD_0000385</t>
+          <t>ORD_0010557</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
@@ -33545,7 +33545,7 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>ORD_0000386</t>
+          <t>ORD_0010558</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
@@ -33616,7 +33616,7 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>ORD_0000387</t>
+          <t>ORD_0010559</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
@@ -33687,7 +33687,7 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>ORD_0000388</t>
+          <t>ORD_0010560</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
@@ -33762,7 +33762,7 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>ORD_0000389</t>
+          <t>ORD_0010561</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
@@ -33833,7 +33833,7 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>ORD_0000390</t>
+          <t>ORD_0010562</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
@@ -33908,7 +33908,7 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>ORD_0000391</t>
+          <t>ORD_0010563</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
@@ -33979,7 +33979,7 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>ORD_0000392</t>
+          <t>ORD_0010564</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
@@ -34050,7 +34050,7 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>ORD_0000393</t>
+          <t>ORD_0010565</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
@@ -34121,7 +34121,7 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>ORD_0000394</t>
+          <t>ORD_0010566</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
@@ -34196,7 +34196,7 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>ORD_0000395</t>
+          <t>ORD_0010567</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
@@ -34267,7 +34267,7 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>ORD_0000396</t>
+          <t>ORD_0010568</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
@@ -34338,7 +34338,7 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>ORD_0000397</t>
+          <t>ORD_0010569</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
@@ -34409,7 +34409,7 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>ORD_0000398</t>
+          <t>ORD_0010570</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
@@ -34480,7 +34480,7 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>ORD_0000399</t>
+          <t>ORD_0010571</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
@@ -34551,7 +34551,7 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>ORD_0000400</t>
+          <t>ORD_0010572</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
@@ -34622,7 +34622,7 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>ORD_0000401</t>
+          <t>ORD_0010573</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
@@ -34693,7 +34693,7 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>ORD_0000402</t>
+          <t>ORD_0010574</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
@@ -34764,7 +34764,7 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>ORD_0000403</t>
+          <t>ORD_0010575</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
@@ -34835,7 +34835,7 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>ORD_0000404</t>
+          <t>ORD_0010576</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
@@ -34906,7 +34906,7 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>ORD_0000405</t>
+          <t>ORD_0010577</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
@@ -34977,7 +34977,7 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>ORD_0000406</t>
+          <t>ORD_0010578</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
@@ -35048,7 +35048,7 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>ORD_0000407</t>
+          <t>ORD_0010579</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
@@ -35119,7 +35119,7 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>ORD_0000408</t>
+          <t>ORD_0010580</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
@@ -35190,7 +35190,7 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>ORD_0000409</t>
+          <t>ORD_0010581</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
@@ -35261,7 +35261,7 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>ORD_0000410</t>
+          <t>ORD_0010582</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
@@ -35332,7 +35332,7 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>ORD_0000411</t>
+          <t>ORD_0010583</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
@@ -35407,7 +35407,7 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>ORD_0000412</t>
+          <t>ORD_0010584</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
@@ -35478,7 +35478,7 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>ORD_0000412</t>
+          <t>ORD_0010584</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
@@ -35549,7 +35549,7 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>ORD_0000413</t>
+          <t>ORD_0010585</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
@@ -35620,7 +35620,7 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>ORD_0000414</t>
+          <t>ORD_0010586</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
@@ -35691,7 +35691,7 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>ORD_0000414</t>
+          <t>ORD_0010586</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
@@ -35762,7 +35762,7 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>ORD_0000414</t>
+          <t>ORD_0010586</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
@@ -35833,7 +35833,7 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>ORD_0000415</t>
+          <t>ORD_0010587</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
@@ -35908,7 +35908,7 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>ORD_0000416</t>
+          <t>ORD_0010588</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
@@ -35979,7 +35979,7 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>ORD_0000417</t>
+          <t>ORD_0010589</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
@@ -36050,7 +36050,7 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>ORD_0000418</t>
+          <t>ORD_0010590</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
@@ -36121,7 +36121,7 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>ORD_0000419</t>
+          <t>ORD_0010591</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
@@ -36192,7 +36192,7 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>ORD_0000420</t>
+          <t>ORD_0010592</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
@@ -36263,7 +36263,7 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>ORD_0000420</t>
+          <t>ORD_0010592</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
@@ -36334,7 +36334,7 @@
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>ORD_0000420</t>
+          <t>ORD_0010592</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
@@ -36405,7 +36405,7 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>ORD_0000421</t>
+          <t>ORD_0010593</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
@@ -36480,7 +36480,7 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>ORD_0000422</t>
+          <t>ORD_0010594</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
@@ -36551,7 +36551,7 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>ORD_0000423</t>
+          <t>ORD_0010595</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
@@ -36622,7 +36622,7 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>ORD_0000424</t>
+          <t>ORD_0010596</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
@@ -36693,7 +36693,7 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>ORD_0000425</t>
+          <t>ORD_0010597</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
@@ -36768,7 +36768,7 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>ORD_0000426</t>
+          <t>ORD_0010598</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
@@ -36839,7 +36839,7 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>ORD_0000427</t>
+          <t>ORD_0010599</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
@@ -36910,7 +36910,7 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>ORD_0000428</t>
+          <t>ORD_0010600</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
@@ -36981,7 +36981,7 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>ORD_0000429</t>
+          <t>ORD_0010601</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
@@ -37052,7 +37052,7 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>ORD_0000430</t>
+          <t>ORD_0010602</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
@@ -37123,7 +37123,7 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>ORD_0000431</t>
+          <t>ORD_0010603</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
@@ -37194,7 +37194,7 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>ORD_0000432</t>
+          <t>ORD_0010604</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
@@ -37265,7 +37265,7 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>ORD_0000433</t>
+          <t>ORD_0010605</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
@@ -37336,7 +37336,7 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>ORD_0000434</t>
+          <t>ORD_0010606</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
@@ -37407,7 +37407,7 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>ORD_0000435</t>
+          <t>ORD_0010607</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
@@ -37478,7 +37478,7 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>ORD_0000436</t>
+          <t>ORD_0010608</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
@@ -37549,7 +37549,7 @@
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>ORD_0000437</t>
+          <t>ORD_0010609</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
@@ -37620,7 +37620,7 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>ORD_0000438</t>
+          <t>ORD_0010610</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
@@ -37691,7 +37691,7 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>ORD_0000439</t>
+          <t>ORD_0010611</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
@@ -37762,7 +37762,7 @@
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>ORD_0000440</t>
+          <t>ORD_0010612</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
@@ -37833,7 +37833,7 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>ORD_0000441</t>
+          <t>ORD_0010613</t>
         </is>
       </c>
       <c r="B524" t="inlineStr">
@@ -37904,7 +37904,7 @@
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>ORD_0000442</t>
+          <t>ORD_0010614</t>
         </is>
       </c>
       <c r="B525" t="inlineStr">
@@ -37979,7 +37979,7 @@
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>ORD_0000443</t>
+          <t>ORD_0010615</t>
         </is>
       </c>
       <c r="B526" t="inlineStr">
@@ -38054,7 +38054,7 @@
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>ORD_0000444</t>
+          <t>ORD_0010616</t>
         </is>
       </c>
       <c r="B527" t="inlineStr">
@@ -38125,7 +38125,7 @@
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>ORD_0000445</t>
+          <t>ORD_0010617</t>
         </is>
       </c>
       <c r="B528" t="inlineStr">
@@ -38196,7 +38196,7 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>ORD_0000446</t>
+          <t>ORD_0010618</t>
         </is>
       </c>
       <c r="B529" t="inlineStr">
@@ -38267,7 +38267,7 @@
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>ORD_0000447</t>
+          <t>ORD_0010619</t>
         </is>
       </c>
       <c r="B530" t="inlineStr">
@@ -38338,7 +38338,7 @@
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>ORD_0000448</t>
+          <t>ORD_0010620</t>
         </is>
       </c>
       <c r="B531" t="inlineStr">
@@ -38409,7 +38409,7 @@
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>ORD_0000449</t>
+          <t>ORD_0010621</t>
         </is>
       </c>
       <c r="B532" t="inlineStr">
@@ -38480,7 +38480,7 @@
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>ORD_0000450</t>
+          <t>ORD_0010622</t>
         </is>
       </c>
       <c r="B533" t="inlineStr">
@@ -38555,7 +38555,7 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>ORD_0000451</t>
+          <t>ORD_0010623</t>
         </is>
       </c>
       <c r="B534" t="inlineStr">
@@ -38626,7 +38626,7 @@
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>ORD_0000452</t>
+          <t>ORD_0010624</t>
         </is>
       </c>
       <c r="B535" t="inlineStr">
@@ -38697,7 +38697,7 @@
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>ORD_0000453</t>
+          <t>ORD_0010625</t>
         </is>
       </c>
       <c r="B536" t="inlineStr">
@@ -38768,7 +38768,7 @@
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>ORD_0000454</t>
+          <t>ORD_0010626</t>
         </is>
       </c>
       <c r="B537" t="inlineStr">
@@ -38839,7 +38839,7 @@
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>ORD_0000455</t>
+          <t>ORD_0010627</t>
         </is>
       </c>
       <c r="B538" t="inlineStr">
@@ -38910,7 +38910,7 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>ORD_0000456</t>
+          <t>ORD_0010628</t>
         </is>
       </c>
       <c r="B539" t="inlineStr">
@@ -38981,7 +38981,7 @@
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>ORD_0000456</t>
+          <t>ORD_0010628</t>
         </is>
       </c>
       <c r="B540" t="inlineStr">
@@ -39052,7 +39052,7 @@
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>ORD_0000457</t>
+          <t>ORD_0010629</t>
         </is>
       </c>
       <c r="B541" t="inlineStr">
@@ -39123,7 +39123,7 @@
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>ORD_0000458</t>
+          <t>ORD_0010630</t>
         </is>
       </c>
       <c r="B542" t="inlineStr">
@@ -39194,7 +39194,7 @@
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>ORD_0000459</t>
+          <t>ORD_0010631</t>
         </is>
       </c>
       <c r="B543" t="inlineStr">
@@ -39265,7 +39265,7 @@
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>ORD_0000460</t>
+          <t>ORD_0010632</t>
         </is>
       </c>
       <c r="B544" t="inlineStr">
@@ -39336,7 +39336,7 @@
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>ORD_0000461</t>
+          <t>ORD_0010633</t>
         </is>
       </c>
       <c r="B545" t="inlineStr">
@@ -39407,7 +39407,7 @@
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>ORD_0000462</t>
+          <t>ORD_0010634</t>
         </is>
       </c>
       <c r="B546" t="inlineStr">
@@ -39478,7 +39478,7 @@
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>ORD_0000463</t>
+          <t>ORD_0010635</t>
         </is>
       </c>
       <c r="B547" t="inlineStr">
@@ -39549,7 +39549,7 @@
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>ORD_0000464</t>
+          <t>ORD_0010636</t>
         </is>
       </c>
       <c r="B548" t="inlineStr">
@@ -39620,7 +39620,7 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>ORD_0000464</t>
+          <t>ORD_0010636</t>
         </is>
       </c>
       <c r="B549" t="inlineStr">
@@ -39691,7 +39691,7 @@
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>ORD_0000465</t>
+          <t>ORD_0010637</t>
         </is>
       </c>
       <c r="B550" t="inlineStr">
@@ -39766,7 +39766,7 @@
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>ORD_0000466</t>
+          <t>ORD_0010638</t>
         </is>
       </c>
       <c r="B551" t="inlineStr">
@@ -39837,7 +39837,7 @@
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>ORD_0000467</t>
+          <t>ORD_0010639</t>
         </is>
       </c>
       <c r="B552" t="inlineStr">
@@ -39908,7 +39908,7 @@
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>ORD_0000468</t>
+          <t>ORD_0010640</t>
         </is>
       </c>
       <c r="B553" t="inlineStr">
@@ -39979,7 +39979,7 @@
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>ORD_0000469</t>
+          <t>ORD_0010641</t>
         </is>
       </c>
       <c r="B554" t="inlineStr">
@@ -40050,7 +40050,7 @@
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>ORD_0000470</t>
+          <t>ORD_0010642</t>
         </is>
       </c>
       <c r="B555" t="inlineStr">
@@ -40121,7 +40121,7 @@
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>ORD_0000471</t>
+          <t>ORD_0010643</t>
         </is>
       </c>
       <c r="B556" t="inlineStr">
@@ -40192,7 +40192,7 @@
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>ORD_0000472</t>
+          <t>ORD_0010644</t>
         </is>
       </c>
       <c r="B557" t="inlineStr">
@@ -40263,7 +40263,7 @@
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>ORD_0000473</t>
+          <t>ORD_0010645</t>
         </is>
       </c>
       <c r="B558" t="inlineStr">
@@ -40334,7 +40334,7 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>ORD_0000474</t>
+          <t>ORD_0010646</t>
         </is>
       </c>
       <c r="B559" t="inlineStr">
@@ -40405,7 +40405,7 @@
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>ORD_0000475</t>
+          <t>ORD_0010647</t>
         </is>
       </c>
       <c r="B560" t="inlineStr">
@@ -40476,7 +40476,7 @@
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>ORD_0000476</t>
+          <t>ORD_0010648</t>
         </is>
       </c>
       <c r="B561" t="inlineStr">
@@ -40547,7 +40547,7 @@
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>ORD_0000477</t>
+          <t>ORD_0010649</t>
         </is>
       </c>
       <c r="B562" t="inlineStr">
@@ -40618,7 +40618,7 @@
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>ORD_0000478</t>
+          <t>ORD_0010650</t>
         </is>
       </c>
       <c r="B563" t="inlineStr">
@@ -40689,7 +40689,7 @@
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>ORD_0000479</t>
+          <t>ORD_0010651</t>
         </is>
       </c>
       <c r="B564" t="inlineStr">
@@ -40760,7 +40760,7 @@
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>ORD_0000480</t>
+          <t>ORD_0010652</t>
         </is>
       </c>
       <c r="B565" t="inlineStr">
@@ -40835,7 +40835,7 @@
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>ORD_0000481</t>
+          <t>ORD_0010653</t>
         </is>
       </c>
       <c r="B566" t="inlineStr">
@@ -40906,7 +40906,7 @@
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>ORD_0000482</t>
+          <t>ORD_0010654</t>
         </is>
       </c>
       <c r="B567" t="inlineStr">
@@ -40977,7 +40977,7 @@
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>ORD_0000483</t>
+          <t>ORD_0010655</t>
         </is>
       </c>
       <c r="B568" t="inlineStr">
@@ -41048,7 +41048,7 @@
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>ORD_0000484</t>
+          <t>ORD_0010656</t>
         </is>
       </c>
       <c r="B569" t="inlineStr">
@@ -41119,7 +41119,7 @@
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>ORD_0000485</t>
+          <t>ORD_0010657</t>
         </is>
       </c>
       <c r="B570" t="inlineStr">
@@ -41190,7 +41190,7 @@
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>ORD_0000486</t>
+          <t>ORD_0010658</t>
         </is>
       </c>
       <c r="B571" t="inlineStr">
@@ -41261,7 +41261,7 @@
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>ORD_0000487</t>
+          <t>ORD_0010659</t>
         </is>
       </c>
       <c r="B572" t="inlineStr">
@@ -41332,7 +41332,7 @@
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>ORD_0000488</t>
+          <t>ORD_0010660</t>
         </is>
       </c>
       <c r="B573" t="inlineStr">
@@ -41403,7 +41403,7 @@
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>ORD_0000489</t>
+          <t>ORD_0010661</t>
         </is>
       </c>
       <c r="B574" t="inlineStr">
@@ -41474,7 +41474,7 @@
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>ORD_0000490</t>
+          <t>ORD_0010662</t>
         </is>
       </c>
       <c r="B575" t="inlineStr">
@@ -41545,7 +41545,7 @@
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>ORD_0000491</t>
+          <t>ORD_0010663</t>
         </is>
       </c>
       <c r="B576" t="inlineStr">
@@ -41616,7 +41616,7 @@
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>ORD_0000492</t>
+          <t>ORD_0010664</t>
         </is>
       </c>
       <c r="B577" t="inlineStr">
@@ -41687,7 +41687,7 @@
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>ORD_0000493</t>
+          <t>ORD_0010665</t>
         </is>
       </c>
       <c r="B578" t="inlineStr">
@@ -41758,7 +41758,7 @@
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>ORD_0000494</t>
+          <t>ORD_0010666</t>
         </is>
       </c>
       <c r="B579" t="inlineStr">
@@ -41833,7 +41833,7 @@
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>ORD_0000495</t>
+          <t>ORD_0010667</t>
         </is>
       </c>
       <c r="B580" t="inlineStr">
@@ -41904,7 +41904,7 @@
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>ORD_0000496</t>
+          <t>ORD_0010668</t>
         </is>
       </c>
       <c r="B581" t="inlineStr">
@@ -41975,7 +41975,7 @@
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>ORD_0000497</t>
+          <t>ORD_0010669</t>
         </is>
       </c>
       <c r="B582" t="inlineStr">
@@ -42046,7 +42046,7 @@
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>ORD_0000498</t>
+          <t>ORD_0010670</t>
         </is>
       </c>
       <c r="B583" t="inlineStr">
@@ -42117,7 +42117,7 @@
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>ORD_0000499</t>
+          <t>ORD_0010671</t>
         </is>
       </c>
       <c r="B584" t="inlineStr">
@@ -42188,7 +42188,7 @@
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>ORD_0000500</t>
+          <t>ORD_0010672</t>
         </is>
       </c>
       <c r="B585" t="inlineStr">
@@ -42259,7 +42259,7 @@
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>ORD_0000501</t>
+          <t>ORD_0010673</t>
         </is>
       </c>
       <c r="B586" t="inlineStr">
@@ -42330,7 +42330,7 @@
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>ORD_0000502</t>
+          <t>ORD_0010674</t>
         </is>
       </c>
       <c r="B587" t="inlineStr">
@@ -42401,7 +42401,7 @@
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>ORD_0000503</t>
+          <t>ORD_0010675</t>
         </is>
       </c>
       <c r="B588" t="inlineStr">
@@ -42472,7 +42472,7 @@
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>ORD_0000504</t>
+          <t>ORD_0010676</t>
         </is>
       </c>
       <c r="B589" t="inlineStr">
@@ -42547,7 +42547,7 @@
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>ORD_0000505</t>
+          <t>ORD_0010677</t>
         </is>
       </c>
       <c r="B590" t="inlineStr">
@@ -42618,7 +42618,7 @@
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>ORD_0000505</t>
+          <t>ORD_0010677</t>
         </is>
       </c>
       <c r="B591" t="inlineStr">
@@ -42689,7 +42689,7 @@
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>ORD_0000506</t>
+          <t>ORD_0010678</t>
         </is>
       </c>
       <c r="B592" t="inlineStr">
@@ -42760,7 +42760,7 @@
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>ORD_0000507</t>
+          <t>ORD_0010679</t>
         </is>
       </c>
       <c r="B593" t="inlineStr">
@@ -42831,7 +42831,7 @@
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>ORD_0000508</t>
+          <t>ORD_0010680</t>
         </is>
       </c>
       <c r="B594" t="inlineStr">
@@ -42902,7 +42902,7 @@
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>ORD_0000509</t>
+          <t>ORD_0010681</t>
         </is>
       </c>
       <c r="B595" t="inlineStr">
@@ -42973,7 +42973,7 @@
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>ORD_0000510</t>
+          <t>ORD_0010682</t>
         </is>
       </c>
       <c r="B596" t="inlineStr">
@@ -43044,7 +43044,7 @@
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>ORD_0000511</t>
+          <t>ORD_0010683</t>
         </is>
       </c>
       <c r="B597" t="inlineStr">
@@ -43115,7 +43115,7 @@
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>ORD_0000511</t>
+          <t>ORD_0010683</t>
         </is>
       </c>
       <c r="B598" t="inlineStr">
@@ -43186,7 +43186,7 @@
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>ORD_0000512</t>
+          <t>ORD_0010684</t>
         </is>
       </c>
       <c r="B599" t="inlineStr">
@@ -43257,7 +43257,7 @@
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>ORD_0000513</t>
+          <t>ORD_0010685</t>
         </is>
       </c>
       <c r="B600" t="inlineStr">
@@ -43328,7 +43328,7 @@
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>ORD_0000514</t>
+          <t>ORD_0010686</t>
         </is>
       </c>
       <c r="B601" t="inlineStr">
@@ -43399,7 +43399,7 @@
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>ORD_0000515</t>
+          <t>ORD_0010687</t>
         </is>
       </c>
       <c r="B602" t="inlineStr">
@@ -43470,7 +43470,7 @@
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>ORD_0000516</t>
+          <t>ORD_0010688</t>
         </is>
       </c>
       <c r="B603" t="inlineStr">
@@ -43541,7 +43541,7 @@
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>ORD_0000517</t>
+          <t>ORD_0010689</t>
         </is>
       </c>
       <c r="B604" t="inlineStr">
@@ -43612,7 +43612,7 @@
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>ORD_0000518</t>
+          <t>ORD_0010690</t>
         </is>
       </c>
       <c r="B605" t="inlineStr">
@@ -43687,7 +43687,7 @@
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>ORD_0000519</t>
+          <t>ORD_0010691</t>
         </is>
       </c>
       <c r="B606" t="inlineStr">
@@ -43758,7 +43758,7 @@
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>ORD_0000520</t>
+          <t>ORD_0010692</t>
         </is>
       </c>
       <c r="B607" t="inlineStr">
@@ -43829,7 +43829,7 @@
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>ORD_0000521</t>
+          <t>ORD_0010693</t>
         </is>
       </c>
       <c r="B608" t="inlineStr">
@@ -43900,7 +43900,7 @@
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>ORD_0000522</t>
+          <t>ORD_0010694</t>
         </is>
       </c>
       <c r="B609" t="inlineStr">
@@ -43971,7 +43971,7 @@
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>ORD_0000523</t>
+          <t>ORD_0010695</t>
         </is>
       </c>
       <c r="B610" t="inlineStr">
@@ -44046,7 +44046,7 @@
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>ORD_0000524</t>
+          <t>ORD_0010696</t>
         </is>
       </c>
       <c r="B611" t="inlineStr">
@@ -44117,7 +44117,7 @@
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>ORD_0000525</t>
+          <t>ORD_0010697</t>
         </is>
       </c>
       <c r="B612" t="inlineStr">
@@ -44188,7 +44188,7 @@
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>ORD_0000526</t>
+          <t>ORD_0010698</t>
         </is>
       </c>
       <c r="B613" t="inlineStr">
@@ -44259,7 +44259,7 @@
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>ORD_0000527</t>
+          <t>ORD_0010699</t>
         </is>
       </c>
       <c r="B614" t="inlineStr">
@@ -44330,7 +44330,7 @@
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>ORD_0000528</t>
+          <t>ORD_0010700</t>
         </is>
       </c>
       <c r="B615" t="inlineStr">
@@ -44401,7 +44401,7 @@
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>ORD_0000529</t>
+          <t>ORD_0010701</t>
         </is>
       </c>
       <c r="B616" t="inlineStr">
@@ -44472,7 +44472,7 @@
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>ORD_0000530</t>
+          <t>ORD_0010702</t>
         </is>
       </c>
       <c r="B617" t="inlineStr">
@@ -44547,7 +44547,7 @@
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>ORD_0000531</t>
+          <t>ORD_0010703</t>
         </is>
       </c>
       <c r="B618" t="inlineStr">
@@ -44622,7 +44622,7 @@
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>ORD_0000532</t>
+          <t>ORD_0010704</t>
         </is>
       </c>
       <c r="B619" t="inlineStr">
@@ -44693,7 +44693,7 @@
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>ORD_0000533</t>
+          <t>ORD_0010705</t>
         </is>
       </c>
       <c r="B620" t="inlineStr">
@@ -44764,7 +44764,7 @@
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>ORD_0000534</t>
+          <t>ORD_0010706</t>
         </is>
       </c>
       <c r="B621" t="inlineStr">
@@ -44835,7 +44835,7 @@
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>ORD_0000535</t>
+          <t>ORD_0010707</t>
         </is>
       </c>
       <c r="B622" t="inlineStr">
@@ -44906,7 +44906,7 @@
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>ORD_0000536</t>
+          <t>ORD_0010708</t>
         </is>
       </c>
       <c r="B623" t="inlineStr">
@@ -44977,7 +44977,7 @@
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>ORD_0000537</t>
+          <t>ORD_0010709</t>
         </is>
       </c>
       <c r="B624" t="inlineStr">
@@ -45048,7 +45048,7 @@
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>ORD_0000537</t>
+          <t>ORD_0010709</t>
         </is>
       </c>
       <c r="B625" t="inlineStr">
@@ -45119,7 +45119,7 @@
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>ORD_0000537</t>
+          <t>ORD_0010709</t>
         </is>
       </c>
       <c r="B626" t="inlineStr">
@@ -45190,7 +45190,7 @@
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>ORD_0000538</t>
+          <t>ORD_0010710</t>
         </is>
       </c>
       <c r="B627" t="inlineStr">
@@ -45261,7 +45261,7 @@
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>ORD_0000538</t>
+          <t>ORD_0010710</t>
         </is>
       </c>
       <c r="B628" t="inlineStr">
@@ -45332,7 +45332,7 @@
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>ORD_0000539</t>
+          <t>ORD_0010711</t>
         </is>
       </c>
       <c r="B629" t="inlineStr">
@@ -45403,7 +45403,7 @@
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>ORD_0000540</t>
+          <t>ORD_0010712</t>
         </is>
       </c>
       <c r="B630" t="inlineStr">
@@ -45474,7 +45474,7 @@
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>ORD_0000541</t>
+          <t>ORD_0010713</t>
         </is>
       </c>
       <c r="B631" t="inlineStr">
@@ -45545,7 +45545,7 @@
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>ORD_0000541</t>
+          <t>ORD_0010713</t>
         </is>
       </c>
       <c r="B632" t="inlineStr">
@@ -45616,7 +45616,7 @@
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>ORD_0000542</t>
+          <t>ORD_0010714</t>
         </is>
       </c>
       <c r="B633" t="inlineStr">
@@ -45687,7 +45687,7 @@
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>ORD_0000543</t>
+          <t>ORD_0010715</t>
         </is>
       </c>
       <c r="B634" t="inlineStr">
@@ -45758,7 +45758,7 @@
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>ORD_0000544</t>
+          <t>ORD_0010716</t>
         </is>
       </c>
       <c r="B635" t="inlineStr">
@@ -45829,7 +45829,7 @@
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>ORD_0000545</t>
+          <t>ORD_0010717</t>
         </is>
       </c>
       <c r="B636" t="inlineStr">
@@ -45900,7 +45900,7 @@
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>ORD_0000546</t>
+          <t>ORD_0010718</t>
         </is>
       </c>
       <c r="B637" t="inlineStr">
@@ -45971,7 +45971,7 @@
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>ORD_0000547</t>
+          <t>ORD_0010719</t>
         </is>
       </c>
       <c r="B638" t="inlineStr">
@@ -46042,7 +46042,7 @@
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>ORD_0000548</t>
+          <t>ORD_0010720</t>
         </is>
       </c>
       <c r="B639" t="inlineStr">
@@ -46113,7 +46113,7 @@
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>ORD_0000548</t>
+          <t>ORD_0010720</t>
         </is>
       </c>
       <c r="B640" t="inlineStr">
@@ -46184,7 +46184,7 @@
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>ORD_0000549</t>
+          <t>ORD_0010721</t>
         </is>
       </c>
       <c r="B641" t="inlineStr">
@@ -46255,7 +46255,7 @@
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>ORD_0000550</t>
+          <t>ORD_0010722</t>
         </is>
       </c>
       <c r="B642" t="inlineStr">
@@ -46326,7 +46326,7 @@
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>ORD_0000551</t>
+          <t>ORD_0010723</t>
         </is>
       </c>
       <c r="B643" t="inlineStr">
@@ -46397,7 +46397,7 @@
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>ORD_0000552</t>
+          <t>ORD_0010724</t>
         </is>
       </c>
       <c r="B644" t="inlineStr">
@@ -46472,7 +46472,7 @@
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>ORD_0000553</t>
+          <t>ORD_0010725</t>
         </is>
       </c>
       <c r="B645" t="inlineStr">
@@ -46543,7 +46543,7 @@
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>ORD_0000554</t>
+          <t>ORD_0010726</t>
         </is>
       </c>
       <c r="B646" t="inlineStr">
@@ -46614,7 +46614,7 @@
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>ORD_0000555</t>
+          <t>ORD_0010727</t>
         </is>
       </c>
       <c r="B647" t="inlineStr">
@@ -46685,7 +46685,7 @@
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>ORD_0000556</t>
+          <t>ORD_0010728</t>
         </is>
       </c>
       <c r="B648" t="inlineStr">
@@ -46756,7 +46756,7 @@
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>ORD_0000557</t>
+          <t>ORD_0010729</t>
         </is>
       </c>
       <c r="B649" t="inlineStr">
@@ -46827,7 +46827,7 @@
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>ORD_0000558</t>
+          <t>ORD_0010730</t>
         </is>
       </c>
       <c r="B650" t="inlineStr">
@@ -46898,7 +46898,7 @@
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>ORD_0000559</t>
+          <t>ORD_0010731</t>
         </is>
       </c>
       <c r="B651" t="inlineStr">
@@ -46973,7 +46973,7 @@
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>ORD_0000560</t>
+          <t>ORD_0010732</t>
         </is>
       </c>
       <c r="B652" t="inlineStr">
@@ -47044,7 +47044,7 @@
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>ORD_0000561</t>
+          <t>ORD_0010733</t>
         </is>
       </c>
       <c r="B653" t="inlineStr">
@@ -47115,7 +47115,7 @@
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>ORD_0000562</t>
+          <t>ORD_0010734</t>
         </is>
       </c>
       <c r="B654" t="inlineStr">
@@ -47186,7 +47186,7 @@
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>ORD_0000563</t>
+          <t>ORD_0010735</t>
         </is>
       </c>
       <c r="B655" t="inlineStr">
@@ -47257,7 +47257,7 @@
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>ORD_0000564</t>
+          <t>ORD_0010736</t>
         </is>
       </c>
       <c r="B656" t="inlineStr">
@@ -47328,7 +47328,7 @@
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>ORD_0000565</t>
+          <t>ORD_0010737</t>
         </is>
       </c>
       <c r="B657" t="inlineStr">
@@ -47399,7 +47399,7 @@
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>ORD_0000566</t>
+          <t>ORD_0010738</t>
         </is>
       </c>
       <c r="B658" t="inlineStr">
@@ -47470,7 +47470,7 @@
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>ORD_0000567</t>
+          <t>ORD_0010739</t>
         </is>
       </c>
       <c r="B659" t="inlineStr">
@@ -47541,7 +47541,7 @@
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>ORD_0000568</t>
+          <t>ORD_0010740</t>
         </is>
       </c>
       <c r="B660" t="inlineStr">
@@ -47612,7 +47612,7 @@
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>ORD_0000569</t>
+          <t>ORD_0010741</t>
         </is>
       </c>
       <c r="B661" t="inlineStr">
@@ -47683,7 +47683,7 @@
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>ORD_0000570</t>
+          <t>ORD_0010742</t>
         </is>
       </c>
       <c r="B662" t="inlineStr">
@@ -47758,7 +47758,7 @@
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>ORD_0000571</t>
+          <t>ORD_0010743</t>
         </is>
       </c>
       <c r="B663" t="inlineStr">
@@ -47829,7 +47829,7 @@
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>ORD_0000572</t>
+          <t>ORD_0010744</t>
         </is>
       </c>
       <c r="B664" t="inlineStr">
@@ -47904,7 +47904,7 @@
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>ORD_0000573</t>
+          <t>ORD_0010745</t>
         </is>
       </c>
       <c r="B665" t="inlineStr">
@@ -47975,7 +47975,7 @@
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>ORD_0000574</t>
+          <t>ORD_0010746</t>
         </is>
       </c>
       <c r="B666" t="inlineStr">
@@ -48046,7 +48046,7 @@
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>ORD_0000575</t>
+          <t>ORD_0010747</t>
         </is>
       </c>
       <c r="B667" t="inlineStr">
@@ -48117,7 +48117,7 @@
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>ORD_0000576</t>
+          <t>ORD_0010748</t>
         </is>
       </c>
       <c r="B668" t="inlineStr">
@@ -48188,7 +48188,7 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>ORD_0000577</t>
+          <t>ORD_0010749</t>
         </is>
       </c>
       <c r="B669" t="inlineStr">
@@ -48259,7 +48259,7 @@
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>ORD_0000577</t>
+          <t>ORD_0010749</t>
         </is>
       </c>
       <c r="B670" t="inlineStr">
@@ -48330,7 +48330,7 @@
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>ORD_0000578</t>
+          <t>ORD_0010750</t>
         </is>
       </c>
       <c r="B671" t="inlineStr">
@@ -48401,7 +48401,7 @@
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>ORD_0000579</t>
+          <t>ORD_0010751</t>
         </is>
       </c>
       <c r="B672" t="inlineStr">
@@ -48472,7 +48472,7 @@
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>ORD_0000580</t>
+          <t>ORD_0010752</t>
         </is>
       </c>
       <c r="B673" t="inlineStr">
@@ -48543,7 +48543,7 @@
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>ORD_0000581</t>
+          <t>ORD_0010753</t>
         </is>
       </c>
       <c r="B674" t="inlineStr">
@@ -48614,7 +48614,7 @@
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>ORD_0000581</t>
+          <t>ORD_0010753</t>
         </is>
       </c>
       <c r="B675" t="inlineStr">
@@ -48685,7 +48685,7 @@
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>ORD_0000582</t>
+          <t>ORD_0010754</t>
         </is>
       </c>
       <c r="B676" t="inlineStr">
@@ -48756,7 +48756,7 @@
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>ORD_0000583</t>
+          <t>ORD_0010755</t>
         </is>
       </c>
       <c r="B677" t="inlineStr">
@@ -48827,7 +48827,7 @@
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>ORD_0000584</t>
+          <t>ORD_0010756</t>
         </is>
       </c>
       <c r="B678" t="inlineStr">
@@ -48898,7 +48898,7 @@
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>ORD_0000585</t>
+          <t>ORD_0010757</t>
         </is>
       </c>
       <c r="B679" t="inlineStr">
@@ -48969,7 +48969,7 @@
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>ORD_0000586</t>
+          <t>ORD_0010758</t>
         </is>
       </c>
       <c r="B680" t="inlineStr">
@@ -49040,7 +49040,7 @@
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>ORD_0000587</t>
+          <t>ORD_0010759</t>
         </is>
       </c>
       <c r="B681" t="inlineStr">
@@ -49111,7 +49111,7 @@
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>ORD_0000587</t>
+          <t>ORD_0010759</t>
         </is>
       </c>
       <c r="B682" t="inlineStr">
@@ -49182,7 +49182,7 @@
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>ORD_0000587</t>
+          <t>ORD_0010759</t>
         </is>
       </c>
       <c r="B683" t="inlineStr">
@@ -49253,7 +49253,7 @@
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>ORD_0000588</t>
+          <t>ORD_0010760</t>
         </is>
       </c>
       <c r="B684" t="inlineStr">
@@ -49328,7 +49328,7 @@
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>ORD_0000589</t>
+          <t>ORD_0010761</t>
         </is>
       </c>
       <c r="B685" t="inlineStr">
@@ -49399,7 +49399,7 @@
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>ORD_0000590</t>
+          <t>ORD_0010762</t>
         </is>
       </c>
       <c r="B686" t="inlineStr">
@@ -49470,7 +49470,7 @@
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>ORD_0000591</t>
+          <t>ORD_0010763</t>
         </is>
       </c>
       <c r="B687" t="inlineStr">
@@ -49545,7 +49545,7 @@
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>ORD_0000592</t>
+          <t>ORD_0010764</t>
         </is>
       </c>
       <c r="B688" t="inlineStr">
@@ -49616,7 +49616,7 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>ORD_0000593</t>
+          <t>ORD_0010765</t>
         </is>
       </c>
       <c r="B689" t="inlineStr">
@@ -49687,7 +49687,7 @@
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>ORD_0000594</t>
+          <t>ORD_0010766</t>
         </is>
       </c>
       <c r="B690" t="inlineStr">
@@ -49758,7 +49758,7 @@
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>ORD_0000595</t>
+          <t>ORD_0010767</t>
         </is>
       </c>
       <c r="B691" t="inlineStr">
@@ -49829,7 +49829,7 @@
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>ORD_0000596</t>
+          <t>ORD_0010768</t>
         </is>
       </c>
       <c r="B692" t="inlineStr">
@@ -49900,7 +49900,7 @@
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>ORD_0000596</t>
+          <t>ORD_0010768</t>
         </is>
       </c>
       <c r="B693" t="inlineStr">
@@ -49971,7 +49971,7 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>ORD_0000596</t>
+          <t>ORD_0010768</t>
         </is>
       </c>
       <c r="B694" t="inlineStr">
@@ -50042,7 +50042,7 @@
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>ORD_0000596</t>
+          <t>ORD_0010768</t>
         </is>
       </c>
       <c r="B695" t="inlineStr">
@@ -50113,7 +50113,7 @@
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>ORD_0000597</t>
+          <t>ORD_0010769</t>
         </is>
       </c>
       <c r="B696" t="inlineStr">
@@ -50188,7 +50188,7 @@
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>ORD_0000598</t>
+          <t>ORD_0010770</t>
         </is>
       </c>
       <c r="B697" t="inlineStr">
@@ -50259,7 +50259,7 @@
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>ORD_0000598</t>
+          <t>ORD_0010770</t>
         </is>
       </c>
       <c r="B698" t="inlineStr">
@@ -50330,7 +50330,7 @@
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>ORD_0000598</t>
+          <t>ORD_0010770</t>
         </is>
       </c>
       <c r="B699" t="inlineStr">
@@ -50401,7 +50401,7 @@
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>ORD_0000598</t>
+          <t>ORD_0010770</t>
         </is>
       </c>
       <c r="B700" t="inlineStr">
@@ -50472,7 +50472,7 @@
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>ORD_0000598</t>
+          <t>ORD_0010770</t>
         </is>
       </c>
       <c r="B701" t="inlineStr">
@@ -50543,7 +50543,7 @@
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>ORD_0000599</t>
+          <t>ORD_0010771</t>
         </is>
       </c>
       <c r="B702" t="inlineStr">
@@ -50614,7 +50614,7 @@
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>ORD_0000600</t>
+          <t>ORD_0010772</t>
         </is>
       </c>
       <c r="B703" t="inlineStr">
@@ -50685,7 +50685,7 @@
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>ORD_0000601</t>
+          <t>ORD_0010773</t>
         </is>
       </c>
       <c r="B704" t="inlineStr">
@@ -50760,7 +50760,7 @@
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>ORD_0000602</t>
+          <t>ORD_0010774</t>
         </is>
       </c>
       <c r="B705" t="inlineStr">
@@ -50835,7 +50835,7 @@
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>ORD_0000603</t>
+          <t>ORD_0010775</t>
         </is>
       </c>
       <c r="B706" t="inlineStr">
@@ -50906,7 +50906,7 @@
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>ORD_0000604</t>
+          <t>ORD_0010776</t>
         </is>
       </c>
       <c r="B707" t="inlineStr">
@@ -50981,7 +50981,7 @@
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>ORD_0000605</t>
+          <t>ORD_0010777</t>
         </is>
       </c>
       <c r="B708" t="inlineStr">
@@ -51052,7 +51052,7 @@
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>ORD_0000605</t>
+          <t>ORD_0010777</t>
         </is>
       </c>
       <c r="B709" t="inlineStr">
@@ -51123,7 +51123,7 @@
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>ORD_0000606</t>
+          <t>ORD_0010778</t>
         </is>
       </c>
       <c r="B710" t="inlineStr">
@@ -51194,7 +51194,7 @@
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>ORD_0000607</t>
+          <t>ORD_0010779</t>
         </is>
       </c>
       <c r="B711" t="inlineStr">
@@ -51265,7 +51265,7 @@
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>ORD_0000608</t>
+          <t>ORD_0010780</t>
         </is>
       </c>
       <c r="B712" t="inlineStr">
@@ -51336,7 +51336,7 @@
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>ORD_0000609</t>
+          <t>ORD_0010781</t>
         </is>
       </c>
       <c r="B713" t="inlineStr">
@@ -51407,7 +51407,7 @@
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>ORD_0000610</t>
+          <t>ORD_0010782</t>
         </is>
       </c>
       <c r="B714" t="inlineStr">
@@ -51478,7 +51478,7 @@
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>ORD_0000611</t>
+          <t>ORD_0010783</t>
         </is>
       </c>
       <c r="B715" t="inlineStr">
@@ -51553,7 +51553,7 @@
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>ORD_0000612</t>
+          <t>ORD_0010784</t>
         </is>
       </c>
       <c r="B716" t="inlineStr">
@@ -51624,7 +51624,7 @@
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>ORD_0000612</t>
+          <t>ORD_0010784</t>
         </is>
       </c>
       <c r="B717" t="inlineStr">
@@ -51695,7 +51695,7 @@
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>ORD_0000612</t>
+          <t>ORD_0010784</t>
         </is>
       </c>
       <c r="B718" t="inlineStr">
@@ -51766,7 +51766,7 @@
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>ORD_0000613</t>
+          <t>ORD_0010785</t>
         </is>
       </c>
       <c r="B719" t="inlineStr">
@@ -51837,7 +51837,7 @@
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>ORD_0000614</t>
+          <t>ORD_0010786</t>
         </is>
       </c>
       <c r="B720" t="inlineStr">
@@ -51912,7 +51912,7 @@
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>ORD_0000615</t>
+          <t>ORD_0010787</t>
         </is>
       </c>
       <c r="B721" t="inlineStr">
@@ -51987,7 +51987,7 @@
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>ORD_0000616</t>
+          <t>ORD_0010788</t>
         </is>
       </c>
       <c r="B722" t="inlineStr">
@@ -52058,7 +52058,7 @@
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>ORD_0000616</t>
+          <t>ORD_0010788</t>
         </is>
       </c>
       <c r="B723" t="inlineStr">
@@ -52129,7 +52129,7 @@
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>ORD_0000617</t>
+          <t>ORD_0010789</t>
         </is>
       </c>
       <c r="B724" t="inlineStr">
@@ -52200,7 +52200,7 @@
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>ORD_0000618</t>
+          <t>ORD_0010790</t>
         </is>
       </c>
       <c r="B725" t="inlineStr">
@@ -52275,7 +52275,7 @@
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>ORD_0000619</t>
+          <t>ORD_0010791</t>
         </is>
       </c>
       <c r="B726" t="inlineStr">
@@ -52350,7 +52350,7 @@
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>ORD_0000620</t>
+          <t>ORD_0010792</t>
         </is>
       </c>
       <c r="B727" t="inlineStr">
@@ -52421,7 +52421,7 @@
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>ORD_0000621</t>
+          <t>ORD_0010793</t>
         </is>
       </c>
       <c r="B728" t="inlineStr">
@@ -52492,7 +52492,7 @@
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>ORD_0000622</t>
+          <t>ORD_0010794</t>
         </is>
       </c>
       <c r="B729" t="inlineStr">
@@ -52563,7 +52563,7 @@
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>ORD_0000623</t>
+          <t>ORD_0010795</t>
         </is>
       </c>
       <c r="B730" t="inlineStr">
@@ -52634,7 +52634,7 @@
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>ORD_0000624</t>
+          <t>ORD_0010796</t>
         </is>
       </c>
       <c r="B731" t="inlineStr">
@@ -52705,7 +52705,7 @@
     <row r="732">
       <c r="A732" t="inlineStr">
         <is>
-          <t>ORD_0000625</t>
+          <t>ORD_0010797</t>
         </is>
       </c>
       <c r="B732" t="inlineStr">
@@ -52776,7 +52776,7 @@
     <row r="733">
       <c r="A733" t="inlineStr">
         <is>
-          <t>ORD_0000626</t>
+          <t>ORD_0010798</t>
         </is>
       </c>
       <c r="B733" t="inlineStr">
@@ -52847,7 +52847,7 @@
     <row r="734">
       <c r="A734" t="inlineStr">
         <is>
-          <t>ORD_0000627</t>
+          <t>ORD_0010799</t>
         </is>
       </c>
       <c r="B734" t="inlineStr">
@@ -52918,7 +52918,7 @@
     <row r="735">
       <c r="A735" t="inlineStr">
         <is>
-          <t>ORD_0000628</t>
+          <t>ORD_0010800</t>
         </is>
       </c>
       <c r="B735" t="inlineStr">
@@ -52989,7 +52989,7 @@
     <row r="736">
       <c r="A736" t="inlineStr">
         <is>
-          <t>ORD_0000629</t>
+          <t>ORD_0010801</t>
         </is>
       </c>
       <c r="B736" t="inlineStr">
@@ -53060,7 +53060,7 @@
     <row r="737">
       <c r="A737" t="inlineStr">
         <is>
-          <t>ORD_0000629</t>
+          <t>ORD_0010801</t>
         </is>
       </c>
       <c r="B737" t="inlineStr">
@@ -53131,7 +53131,7 @@
     <row r="738">
       <c r="A738" t="inlineStr">
         <is>
-          <t>ORD_0000630</t>
+          <t>ORD_0010802</t>
         </is>
       </c>
       <c r="B738" t="inlineStr">
@@ -53202,7 +53202,7 @@
     <row r="739">
       <c r="A739" t="inlineStr">
         <is>
-          <t>ORD_0000631</t>
+          <t>ORD_0010803</t>
         </is>
       </c>
       <c r="B739" t="inlineStr">
@@ -53273,7 +53273,7 @@
     <row r="740">
       <c r="A740" t="inlineStr">
         <is>
-          <t>ORD_0000632</t>
+          <t>ORD_0010804</t>
         </is>
       </c>
       <c r="B740" t="inlineStr">
@@ -53348,7 +53348,7 @@
     <row r="741">
       <c r="A741" t="inlineStr">
         <is>
-          <t>ORD_0000633</t>
+          <t>ORD_0010805</t>
         </is>
       </c>
       <c r="B741" t="inlineStr">
@@ -53419,7 +53419,7 @@
     <row r="742">
       <c r="A742" t="inlineStr">
         <is>
-          <t>ORD_0000634</t>
+          <t>ORD_0010806</t>
         </is>
       </c>
       <c r="B742" t="inlineStr">
@@ -53494,7 +53494,7 @@
     <row r="743">
       <c r="A743" t="inlineStr">
         <is>
-          <t>ORD_0000635</t>
+          <t>ORD_0010807</t>
         </is>
       </c>
       <c r="B743" t="inlineStr">
@@ -53565,7 +53565,7 @@
     <row r="744">
       <c r="A744" t="inlineStr">
         <is>
-          <t>ORD_0000636</t>
+          <t>ORD_0010808</t>
         </is>
       </c>
       <c r="B744" t="inlineStr">
@@ -53636,7 +53636,7 @@
     <row r="745">
       <c r="A745" t="inlineStr">
         <is>
-          <t>ORD_0000637</t>
+          <t>ORD_0010809</t>
         </is>
       </c>
       <c r="B745" t="inlineStr">
@@ -53707,7 +53707,7 @@
     <row r="746">
       <c r="A746" t="inlineStr">
         <is>
-          <t>ORD_0000638</t>
+          <t>ORD_0010810</t>
         </is>
       </c>
       <c r="B746" t="inlineStr">
@@ -53778,7 +53778,7 @@
     <row r="747">
       <c r="A747" t="inlineStr">
         <is>
-          <t>ORD_0000639</t>
+          <t>ORD_0010811</t>
         </is>
       </c>
       <c r="B747" t="inlineStr">
@@ -53849,7 +53849,7 @@
     <row r="748">
       <c r="A748" t="inlineStr">
         <is>
-          <t>ORD_0000639</t>
+          <t>ORD_0010811</t>
         </is>
       </c>
       <c r="B748" t="inlineStr">
@@ -53920,7 +53920,7 @@
     <row r="749">
       <c r="A749" t="inlineStr">
         <is>
-          <t>ORD_0000639</t>
+          <t>ORD_0010811</t>
         </is>
       </c>
       <c r="B749" t="inlineStr">
@@ -53991,7 +53991,7 @@
     <row r="750">
       <c r="A750" t="inlineStr">
         <is>
-          <t>ORD_0000640</t>
+          <t>ORD_0010812</t>
         </is>
       </c>
       <c r="B750" t="inlineStr">
@@ -54062,7 +54062,7 @@
     <row r="751">
       <c r="A751" t="inlineStr">
         <is>
-          <t>ORD_0000640</t>
+          <t>ORD_0010812</t>
         </is>
       </c>
       <c r="B751" t="inlineStr">
@@ -54133,7 +54133,7 @@
     <row r="752">
       <c r="A752" t="inlineStr">
         <is>
-          <t>ORD_0000641</t>
+          <t>ORD_0010813</t>
         </is>
       </c>
       <c r="B752" t="inlineStr">
@@ -54204,7 +54204,7 @@
     <row r="753">
       <c r="A753" t="inlineStr">
         <is>
-          <t>ORD_0000641</t>
+          <t>ORD_0010813</t>
         </is>
       </c>
       <c r="B753" t="inlineStr">
@@ -54275,7 +54275,7 @@
     <row r="754">
       <c r="A754" t="inlineStr">
         <is>
-          <t>ORD_0000642</t>
+          <t>ORD_0010814</t>
         </is>
       </c>
       <c r="B754" t="inlineStr">
@@ -54346,7 +54346,7 @@
     <row r="755">
       <c r="A755" t="inlineStr">
         <is>
-          <t>ORD_0000643</t>
+          <t>ORD_0010815</t>
         </is>
       </c>
       <c r="B755" t="inlineStr">
@@ -54417,7 +54417,7 @@
     <row r="756">
       <c r="A756" t="inlineStr">
         <is>
-          <t>ORD_0000643</t>
+          <t>ORD_0010815</t>
         </is>
       </c>
       <c r="B756" t="inlineStr">
@@ -54488,7 +54488,7 @@
     <row r="757">
       <c r="A757" t="inlineStr">
         <is>
-          <t>ORD_0000644</t>
+          <t>ORD_0010816</t>
         </is>
       </c>
       <c r="B757" t="inlineStr">
@@ -54563,7 +54563,7 @@
     <row r="758">
       <c r="A758" t="inlineStr">
         <is>
-          <t>ORD_0000645</t>
+          <t>ORD_0010817</t>
         </is>
       </c>
       <c r="B758" t="inlineStr">
@@ -54634,7 +54634,7 @@
     <row r="759">
       <c r="A759" t="inlineStr">
         <is>
-          <t>ORD_0000646</t>
+          <t>ORD_0010818</t>
         </is>
       </c>
       <c r="B759" t="inlineStr">
@@ -54705,7 +54705,7 @@
     <row r="760">
       <c r="A760" t="inlineStr">
         <is>
-          <t>ORD_0000647</t>
+          <t>ORD_0010819</t>
         </is>
       </c>
       <c r="B760" t="inlineStr">
@@ -54776,7 +54776,7 @@
     <row r="761">
       <c r="A761" t="inlineStr">
         <is>
-          <t>ORD_0000648</t>
+          <t>ORD_0010820</t>
         </is>
       </c>
       <c r="B761" t="inlineStr">
@@ -54847,7 +54847,7 @@
     <row r="762">
       <c r="A762" t="inlineStr">
         <is>
-          <t>ORD_0000649</t>
+          <t>ORD_0010821</t>
         </is>
       </c>
       <c r="B762" t="inlineStr">
@@ -54918,7 +54918,7 @@
     <row r="763">
       <c r="A763" t="inlineStr">
         <is>
-          <t>ORD_0000649</t>
+          <t>ORD_0010821</t>
         </is>
       </c>
       <c r="B763" t="inlineStr">
@@ -54989,7 +54989,7 @@
     <row r="764">
       <c r="A764" t="inlineStr">
         <is>
-          <t>ORD_0000650</t>
+          <t>ORD_0010822</t>
         </is>
       </c>
       <c r="B764" t="inlineStr">
@@ -55064,7 +55064,7 @@
     <row r="765">
       <c r="A765" t="inlineStr">
         <is>
-          <t>ORD_0000651</t>
+          <t>ORD_0010823</t>
         </is>
       </c>
       <c r="B765" t="inlineStr">
@@ -55135,7 +55135,7 @@
     <row r="766">
       <c r="A766" t="inlineStr">
         <is>
-          <t>ORD_0000652</t>
+          <t>ORD_0010824</t>
         </is>
       </c>
       <c r="B766" t="inlineStr">
@@ -55206,7 +55206,7 @@
     <row r="767">
       <c r="A767" t="inlineStr">
         <is>
-          <t>ORD_0000653</t>
+          <t>ORD_0010825</t>
         </is>
       </c>
       <c r="B767" t="inlineStr">
@@ -55277,7 +55277,7 @@
     <row r="768">
       <c r="A768" t="inlineStr">
         <is>
-          <t>ORD_0000654</t>
+          <t>ORD_0010826</t>
         </is>
       </c>
       <c r="B768" t="inlineStr">
@@ -55348,7 +55348,7 @@
     <row r="769">
       <c r="A769" t="inlineStr">
         <is>
-          <t>ORD_0000655</t>
+          <t>ORD_0010827</t>
         </is>
       </c>
       <c r="B769" t="inlineStr">
@@ -55419,7 +55419,7 @@
     <row r="770">
       <c r="A770" t="inlineStr">
         <is>
-          <t>ORD_0000656</t>
+          <t>ORD_0010828</t>
         </is>
       </c>
       <c r="B770" t="inlineStr">
@@ -55490,7 +55490,7 @@
     <row r="771">
       <c r="A771" t="inlineStr">
         <is>
-          <t>ORD_0000657</t>
+          <t>ORD_0010829</t>
         </is>
       </c>
       <c r="B771" t="inlineStr">
@@ -55561,7 +55561,7 @@
     <row r="772">
       <c r="A772" t="inlineStr">
         <is>
-          <t>ORD_0000658</t>
+          <t>ORD_0010830</t>
         </is>
       </c>
       <c r="B772" t="inlineStr">
@@ -55632,7 +55632,7 @@
     <row r="773">
       <c r="A773" t="inlineStr">
         <is>
-          <t>ORD_0000659</t>
+          <t>ORD_0010831</t>
         </is>
       </c>
       <c r="B773" t="inlineStr">
@@ -55703,7 +55703,7 @@
     <row r="774">
       <c r="A774" t="inlineStr">
         <is>
-          <t>ORD_0000660</t>
+          <t>ORD_0010832</t>
         </is>
       </c>
       <c r="B774" t="inlineStr">
@@ -55774,7 +55774,7 @@
     <row r="775">
       <c r="A775" t="inlineStr">
         <is>
-          <t>ORD_0000661</t>
+          <t>ORD_0010833</t>
         </is>
       </c>
       <c r="B775" t="inlineStr">
@@ -55845,7 +55845,7 @@
     <row r="776">
       <c r="A776" t="inlineStr">
         <is>
-          <t>ORD_0000662</t>
+          <t>ORD_0010834</t>
         </is>
       </c>
       <c r="B776" t="inlineStr">
@@ -55916,7 +55916,7 @@
     <row r="777">
       <c r="A777" t="inlineStr">
         <is>
-          <t>ORD_0000662</t>
+          <t>ORD_0010834</t>
         </is>
       </c>
       <c r="B777" t="inlineStr">
@@ -55987,7 +55987,7 @@
     <row r="778">
       <c r="A778" t="inlineStr">
         <is>
-          <t>ORD_0000662</t>
+          <t>ORD_0010834</t>
         </is>
       </c>
       <c r="B778" t="inlineStr">
@@ -56058,7 +56058,7 @@
     <row r="779">
       <c r="A779" t="inlineStr">
         <is>
-          <t>ORD_0000662</t>
+          <t>ORD_0010834</t>
         </is>
       </c>
       <c r="B779" t="inlineStr">
@@ -56129,7 +56129,7 @@
     <row r="780">
       <c r="A780" t="inlineStr">
         <is>
-          <t>ORD_0000663</t>
+          <t>ORD_0010835</t>
         </is>
       </c>
       <c r="B780" t="inlineStr">
@@ -56200,7 +56200,7 @@
     <row r="781">
       <c r="A781" t="inlineStr">
         <is>
-          <t>ORD_0000664</t>
+          <t>ORD_0010836</t>
         </is>
       </c>
       <c r="B781" t="inlineStr">
@@ -56271,7 +56271,7 @@
     <row r="782">
       <c r="A782" t="inlineStr">
         <is>
-          <t>ORD_0000665</t>
+          <t>ORD_0010837</t>
         </is>
       </c>
       <c r="B782" t="inlineStr">
@@ -56342,7 +56342,7 @@
     <row r="783">
       <c r="A783" t="inlineStr">
         <is>
-          <t>ORD_0000666</t>
+          <t>ORD_0010838</t>
         </is>
       </c>
       <c r="B783" t="inlineStr">
@@ -56413,7 +56413,7 @@
     <row r="784">
       <c r="A784" t="inlineStr">
         <is>
-          <t>ORD_0000667</t>
+          <t>ORD_0010839</t>
         </is>
       </c>
       <c r="B784" t="inlineStr">
@@ -56484,7 +56484,7 @@
     <row r="785">
       <c r="A785" t="inlineStr">
         <is>
-          <t>ORD_0000668</t>
+          <t>ORD_0010840</t>
         </is>
       </c>
       <c r="B785" t="inlineStr">
@@ -56555,7 +56555,7 @@
     <row r="786">
       <c r="A786" t="inlineStr">
         <is>
-          <t>ORD_0000669</t>
+          <t>ORD_0010841</t>
         </is>
       </c>
       <c r="B786" t="inlineStr">
@@ -56626,7 +56626,7 @@
     <row r="787">
       <c r="A787" t="inlineStr">
         <is>
-          <t>ORD_0000670</t>
+          <t>ORD_0010842</t>
         </is>
       </c>
       <c r="B787" t="inlineStr">
@@ -56697,7 +56697,7 @@
     <row r="788">
       <c r="A788" t="inlineStr">
         <is>
-          <t>ORD_0000671</t>
+          <t>ORD_0010843</t>
         </is>
       </c>
       <c r="B788" t="inlineStr">
@@ -56768,7 +56768,7 @@
     <row r="789">
       <c r="A789" t="inlineStr">
         <is>
-          <t>ORD_0000672</t>
+          <t>ORD_0010844</t>
         </is>
       </c>
       <c r="B789" t="inlineStr">
@@ -56839,7 +56839,7 @@
     <row r="790">
       <c r="A790" t="inlineStr">
         <is>
-          <t>ORD_0000673</t>
+          <t>ORD_0010845</t>
         </is>
       </c>
       <c r="B790" t="inlineStr">
@@ -56914,7 +56914,7 @@
     <row r="791">
       <c r="A791" t="inlineStr">
         <is>
-          <t>ORD_0000674</t>
+          <t>ORD_0010846</t>
         </is>
       </c>
       <c r="B791" t="inlineStr">
@@ -56985,7 +56985,7 @@
     <row r="792">
       <c r="A792" t="inlineStr">
         <is>
-          <t>ORD_0000675</t>
+          <t>ORD_0010847</t>
         </is>
       </c>
       <c r="B792" t="inlineStr">
@@ -57056,7 +57056,7 @@
     <row r="793">
       <c r="A793" t="inlineStr">
         <is>
-          <t>ORD_0000676</t>
+          <t>ORD_0010848</t>
         </is>
       </c>
       <c r="B793" t="inlineStr">
@@ -57127,7 +57127,7 @@
     <row r="794">
       <c r="A794" t="inlineStr">
         <is>
-          <t>ORD_0000677</t>
+          <t>ORD_0010849</t>
         </is>
       </c>
       <c r="B794" t="inlineStr">
@@ -57198,7 +57198,7 @@
     <row r="795">
       <c r="A795" t="inlineStr">
         <is>
-          <t>ORD_0000678</t>
+          <t>ORD_0010850</t>
         </is>
       </c>
       <c r="B795" t="inlineStr">
@@ -57269,7 +57269,7 @@
     <row r="796">
       <c r="A796" t="inlineStr">
         <is>
-          <t>ORD_0000678</t>
+          <t>ORD_0010850</t>
         </is>
       </c>
       <c r="B796" t="inlineStr">
@@ -57340,7 +57340,7 @@
     <row r="797">
       <c r="A797" t="inlineStr">
         <is>
-          <t>ORD_0000678</t>
+          <t>ORD_0010850</t>
         </is>
       </c>
       <c r="B797" t="inlineStr">
@@ -57411,7 +57411,7 @@
     <row r="798">
       <c r="A798" t="inlineStr">
         <is>
-          <t>ORD_0000679</t>
+          <t>ORD_0010851</t>
         </is>
       </c>
       <c r="B798" t="inlineStr">
@@ -57482,7 +57482,7 @@
     <row r="799">
       <c r="A799" t="inlineStr">
         <is>
-          <t>ORD_0000680</t>
+          <t>ORD_0010852</t>
         </is>
       </c>
       <c r="B799" t="inlineStr">
@@ -57553,7 +57553,7 @@
     <row r="800">
       <c r="A800" t="inlineStr">
         <is>
-          <t>ORD_0000681</t>
+          <t>ORD_0010853</t>
         </is>
       </c>
       <c r="B800" t="inlineStr">
@@ -57624,7 +57624,7 @@
     <row r="801">
       <c r="A801" t="inlineStr">
         <is>
-          <t>ORD_0000681</t>
+          <t>ORD_0010853</t>
         </is>
       </c>
       <c r="B801" t="inlineStr">
@@ -57695,7 +57695,7 @@
     <row r="802">
       <c r="A802" t="inlineStr">
         <is>
-          <t>ORD_0000682</t>
+          <t>ORD_0010854</t>
         </is>
       </c>
       <c r="B802" t="inlineStr">
@@ -57766,7 +57766,7 @@
     <row r="803">
       <c r="A803" t="inlineStr">
         <is>
-          <t>ORD_0000683</t>
+          <t>ORD_0010855</t>
         </is>
       </c>
       <c r="B803" t="inlineStr">
@@ -57841,7 +57841,7 @@
     <row r="804">
       <c r="A804" t="inlineStr">
         <is>
-          <t>ORD_0000683</t>
+          <t>ORD_0010855</t>
         </is>
       </c>
       <c r="B804" t="inlineStr">
@@ -57916,7 +57916,7 @@
     <row r="805">
       <c r="A805" t="inlineStr">
         <is>
-          <t>ORD_0000684</t>
+          <t>ORD_0010856</t>
         </is>
       </c>
       <c r="B805" t="inlineStr">
@@ -57987,7 +57987,7 @@
     <row r="806">
       <c r="A806" t="inlineStr">
         <is>
-          <t>ORD_0000684</t>
+          <t>ORD_0010856</t>
         </is>
       </c>
       <c r="B806" t="inlineStr">
@@ -58058,7 +58058,7 @@
     <row r="807">
       <c r="A807" t="inlineStr">
         <is>
-          <t>ORD_0000685</t>
+          <t>ORD_0010857</t>
         </is>
       </c>
       <c r="B807" t="inlineStr">
@@ -58129,7 +58129,7 @@
     <row r="808">
       <c r="A808" t="inlineStr">
         <is>
-          <t>ORD_0000686</t>
+          <t>ORD_0010858</t>
         </is>
       </c>
       <c r="B808" t="inlineStr">
@@ -58204,7 +58204,7 @@
     <row r="809">
       <c r="A809" t="inlineStr">
         <is>
-          <t>ORD_0000687</t>
+          <t>ORD_0010859</t>
         </is>
       </c>
       <c r="B809" t="inlineStr">
@@ -58279,7 +58279,7 @@
     <row r="810">
       <c r="A810" t="inlineStr">
         <is>
-          <t>ORD_0000688</t>
+          <t>ORD_0010860</t>
         </is>
       </c>
       <c r="B810" t="inlineStr">
@@ -58350,7 +58350,7 @@
     <row r="811">
       <c r="A811" t="inlineStr">
         <is>
-          <t>ORD_0000689</t>
+          <t>ORD_0010861</t>
         </is>
       </c>
       <c r="B811" t="inlineStr">
@@ -58421,7 +58421,7 @@
     <row r="812">
       <c r="A812" t="inlineStr">
         <is>
-          <t>ORD_0000690</t>
+          <t>ORD_0010862</t>
         </is>
       </c>
       <c r="B812" t="inlineStr">
@@ -58492,7 +58492,7 @@
     <row r="813">
       <c r="A813" t="inlineStr">
         <is>
-          <t>ORD_0000691</t>
+          <t>ORD_0010863</t>
         </is>
       </c>
       <c r="B813" t="inlineStr">
@@ -58563,7 +58563,7 @@
     <row r="814">
       <c r="A814" t="inlineStr">
         <is>
-          <t>ORD_0000692</t>
+          <t>ORD_0010864</t>
         </is>
       </c>
       <c r="B814" t="inlineStr">
@@ -58634,7 +58634,7 @@
     <row r="815">
       <c r="A815" t="inlineStr">
         <is>
-          <t>ORD_0000693</t>
+          <t>ORD_0010865</t>
         </is>
       </c>
       <c r="B815" t="inlineStr">
@@ -58705,7 +58705,7 @@
     <row r="816">
       <c r="A816" t="inlineStr">
         <is>
-          <t>ORD_0000694</t>
+          <t>ORD_0010866</t>
         </is>
       </c>
       <c r="B816" t="inlineStr">
@@ -58776,7 +58776,7 @@
     <row r="817">
       <c r="A817" t="inlineStr">
         <is>
-          <t>ORD_0000695</t>
+          <t>ORD_0010867</t>
         </is>
       </c>
       <c r="B817" t="inlineStr">
@@ -58847,7 +58847,7 @@
     <row r="818">
       <c r="A818" t="inlineStr">
         <is>
-          <t>ORD_0000696</t>
+          <t>ORD_0010868</t>
         </is>
       </c>
       <c r="B818" t="inlineStr">
@@ -58918,7 +58918,7 @@
     <row r="819">
       <c r="A819" t="inlineStr">
         <is>
-          <t>ORD_0000697</t>
+          <t>ORD_0010869</t>
         </is>
       </c>
       <c r="B819" t="inlineStr">
@@ -58989,7 +58989,7 @@
     <row r="820">
       <c r="A820" t="inlineStr">
         <is>
-          <t>ORD_0000697</t>
+          <t>ORD_0010869</t>
         </is>
       </c>
       <c r="B820" t="inlineStr">
